--- a/docs/template-profile-on-profile.xlsx
+++ b/docs/template-profile-on-profile.xlsx
@@ -1670,9 +1670,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.22265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="40.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
@@ -1680,11 +1680,11 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="102.828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.48828125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="57.05078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="53.71875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1693,25 +1693,25 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="101.46875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.23828125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.1171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="43.0625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.3359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="13.45703125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="31.63671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="31.63671875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="160.9140625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="41.5625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="24.54296875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="57.4140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="30.15234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.77734375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="151.51171875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="39.390625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="22.9296875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="54.29296875" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="36.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/docs/template-profile-on-profile.xlsx
+++ b/docs/template-profile-on-profile.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AQ$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AQ$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2588" uniqueCount="454">
   <si>
     <t>Path</t>
   </si>
@@ -137,7 +137,7 @@
     <t>Mapping: CDA (R2)</t>
   </si>
   <si>
-    <t>Mapping: W5 Mapping</t>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
@@ -169,7 +169,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
     <t>foo</t>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>ClinicalDocument.recordTarget.patientRole</t>
-  </si>
-  <si>
-    <t>administrative.individual</t>
   </si>
   <si>
     <t>Patient.id</t>
@@ -219,7 +216,7 @@
     <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
@@ -235,11 +232,10 @@
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -258,10 +254,10 @@
     <t>The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>extensible</t>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -287,17 +283,13 @@
     <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dom-1
-</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -320,7 +312,7 @@
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -355,21 +347,21 @@
     <t>race</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-race]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core-r4/StructureDefinition/us-core-race]]} {[]}
 </t>
   </si>
   <si>
     <t>ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core-r4/StructureDefinition/us-core-ethnicity]]} {[]}
 </t>
   </si>
   <si>
     <t>birthsex</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core-r4/StructureDefinition/us-core-birthsex]]} {[]}
 </t>
   </si>
   <si>
@@ -383,10 +375,14 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -417,6 +413,9 @@
     <t>.id</t>
   </si>
   <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
     <t>PID-3</t>
   </si>
   <si>
@@ -427,10 +426,10 @@
 </t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -442,10 +441,10 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -457,13 +456,13 @@
     <t>Patient.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary (If known)</t>
+    <t>usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>The purpose of this identifier.</t>
   </si>
   <si>
-    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
@@ -475,7 +474,7 @@
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.0</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -497,13 +496,15 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -525,13 +526,16 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://Healthedata1/IG-Template/patient-ids"/&gt;</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient"/&gt;</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -555,7 +559,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html).</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
@@ -627,23 +631,25 @@
     <t>Whether this patient's record is in active use</t>
   </si>
   <si>
-    <t>Whether this patient record is in active use.</t>
-  </si>
-  <si>
-    <t>Default is true. If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient
-This element is labeled as a modifier because when the patient record is marked as not active it is not expected to be used/referenced without being changed back to active.</t>
+    <t>Whether this patient record is in active use. 
+Many systems use this property to mark as non-current patients, such as those that have not been seen for a period of time based on an organization's business rules.
+It is often used to filter patient lists to exclude inactive patients
+Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.</t>
+  </si>
+  <si>
+    <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.</t>
   </si>
   <si>
     <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>&lt;valueBoolean xmlns="http://hl7.org/fhir" value="true"/&gt;</t>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
   </si>
   <si>
     <t>statusCode</t>
   </si>
   <si>
-    <t>status</t>
+    <t>FiveWs.status</t>
   </si>
   <si>
     <t>Patient.name</t>
@@ -689,16 +695,16 @@
     <t>Identifies the purpose for this name.</t>
   </si>
   <si>
-    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary or old name etc.for a current/permanent one. Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
-    <t>The use of a human name</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use</t>
+    <t>The use of a human name.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.0</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -716,10 +722,10 @@
     <t>Text representation of the full name</t>
   </si>
   <si>
-    <t>A full text representation of the name.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and structured parts.</t>
+    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
   </si>
   <si>
     <t>A renderable, unencoded form.</t>
@@ -772,7 +778,7 @@
     <t>Given name.</t>
   </si>
   <si>
-    <t>If only initials are recorded, they may be used in place of the full name.  Not called "first name" since given names do not always come first.</t>
+    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
   </si>
   <si>
     <t>HumanName.given</t>
@@ -854,7 +860,7 @@
     <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.</t>
   </si>
   <si>
-    <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address may not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>
+    <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>
   </si>
   <si>
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
@@ -878,10 +884,10 @@
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
   </si>
   <si>
-    <t>The gender may not match the biological sex as determined by genetics, or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than M and F, though the vast majority of systems and contexts only support M and F.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific gender aspect of interest (anatomical, chromosonal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosonal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overrideable error, not a "hard" error.</t>
-  </si>
-  <si>
-    <t>Needed for identification of the individual, in combination with (at least) name and birth date. Gender of individual drives many clinical processes.</t>
+    <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
+  </si>
+  <si>
+    <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
@@ -909,7 +915,7 @@
     <t>The date of birth for the individual.</t>
   </si>
   <si>
-    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternaty/infant care systems).</t>
+    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
   </si>
   <si>
     <t>Age of the individual drives many clinical processes.</t>
@@ -940,8 +946,7 @@
     <t>Indicates if the individual is deceased or not.</t>
   </si>
   <si>
-    <t>If there's no value in the instance it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.
-This element is labeled as a modifier because once a patient is marked as deceased, the actions that are appropriate to perform on the patient may be significantly different.</t>
+    <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.</t>
   </si>
   <si>
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
@@ -960,10 +965,10 @@
 </t>
   </si>
   <si>
-    <t>Addresses for the individual</t>
-  </si>
-  <si>
-    <t>Addresses for the individual.</t>
+    <t>An address for the individual</t>
+  </si>
+  <si>
+    <t>An address for the individual.</t>
   </si>
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.</t>
@@ -1018,12 +1023,10 @@
     <t>Whether patient is part of a multiple birth</t>
   </si>
   <si>
-    <t>Indicates whether the patient is part of a multiple (bool) or indicates the actual birth order (integer).</t>
-  </si>
-  <si>
-    <t>Where the valueInteger is provided, the number is the birth number in the sequence.
-E.g. The middle birth in tripplets would be valueInteger=2 and the third born would have valueInteger=3
-If a bool value was provided for this tripplets examle, then all 3 patient records would have valueBool=true (the ordering is not indicated).</t>
+    <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).</t>
+  </si>
+  <si>
+    <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).</t>
   </si>
   <si>
     <t>For disambiguation of multiple-birth children, especially relevant where the care provider doesn't meet the patient, such as labs.</t>
@@ -1048,6 +1051,12 @@
     <t>Image of the patient.</t>
   </si>
   <si>
+    <t>Guidelines:
+* Use id photos, not clinical photos.
+* Limit dimensions to thumbnail.
+* Keep byte count low to ease resource updates.</t>
+  </si>
+  <si>
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
   </si>
   <si>
@@ -1076,7 +1085,7 @@
     <t>Need to track people you can contact about the patient.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
   </si>
   <si>
@@ -1096,7 +1105,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1117,7 +1130,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/v2-0131</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
   </si>
   <si>
     <t>code</t>
@@ -1181,6 +1194,9 @@
   </si>
   <si>
     <t>The gender of a person used for administrative purposes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.0</t>
   </si>
   <si>
     <t>NK1-15</t>
@@ -1220,127 +1236,25 @@
     <t>effectiveTime</t>
   </si>
   <si>
-    <t>Patient.animal</t>
-  </si>
-  <si>
-    <t>This patient is known to be an animal (non-human)</t>
-  </si>
-  <si>
-    <t>This patient is known to be an animal.</t>
-  </si>
-  <si>
-    <t>The animal element is labeled "Is Modifier" since patients may be non-human. Systems SHALL either handle patient details appropriately (e.g. inform users patient is not human) or reject declared animal records.   The absense of the animal element does not imply that the patient is a human. If a system requires such a positive assertion that the patient is human, an extension will be required.  (Do not use a species of homo-sapiens in animal species, as this would incorrectly infer that the patient is an animal).</t>
-  </si>
-  <si>
-    <t>Many clinical systems are extended to care for animal patients as well as human.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+    <t>Patient.communication</t>
+  </si>
+  <si>
+    <t>A language which may be used to communicate with the patient about his or her health</t>
+  </si>
+  <si>
+    <t>A language which may be used to communicate with the patient about his or her health.</t>
+  </si>
+  <si>
+    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes, then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.</t>
+  </si>
+  <si>
+    <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>player[classCode=ANM]</t>
-  </si>
-  <si>
-    <t>Patient.animal.id</t>
-  </si>
-  <si>
-    <t>Patient.animal.extension</t>
-  </si>
-  <si>
-    <t>Patient.animal.modifierExtension</t>
-  </si>
-  <si>
-    <t>Patient.animal.species</t>
-  </si>
-  <si>
-    <t>E.g. Dog, Cow</t>
-  </si>
-  <si>
-    <t>Identifies the high level taxonomic categorization of the kind of animal.</t>
-  </si>
-  <si>
-    <t>If the patient is non-human, at least a species SHALL be specified. Species SHALL be a widely recognised taxonomic classification.  It may or may not be Linnaean taxonomy and may or may not be at the level of species. If the level is finer than species--such as a breed code--the code system used SHALL allow inference of the species.  (The common example is that the word "Hereford" does not allow inference of the species Bos taurus, because there is a Hereford pig breed, but the SNOMED CT code for "Hereford Cattle Breed" does.).</t>
-  </si>
-  <si>
-    <t>Need to know what kind of animal.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The species of an animal.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/animal-species</t>
-  </si>
-  <si>
-    <t>PID-35</t>
-  </si>
-  <si>
-    <t>Patient.animal.breed</t>
-  </si>
-  <si>
-    <t>E.g. Poodle, Angus</t>
-  </si>
-  <si>
-    <t>Identifies the detailed categorization of the kind of animal.</t>
-  </si>
-  <si>
-    <t>Breed MAY be used to provide further taxonomic or non-taxonomic classification.  It may involve local or proprietary designation--such as commercial strain--and/or additional information such as production type.</t>
-  </si>
-  <si>
-    <t>May need to know the specific kind within the species.</t>
-  </si>
-  <si>
-    <t>The breed of an animal.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/animal-breeds</t>
-  </si>
-  <si>
-    <t>playedRole[classCode=GEN]/scoper[classCode=ANM, determinerCode=KIND]/code</t>
-  </si>
-  <si>
-    <t>PID-37</t>
-  </si>
-  <si>
-    <t>Patient.animal.genderStatus</t>
-  </si>
-  <si>
-    <t>E.g. Neutered, Intact</t>
-  </si>
-  <si>
-    <t>Indicates the current state of the animal's reproductive organs.</t>
-  </si>
-  <si>
-    <t>Gender status can affect housing and animal behavior.</t>
-  </si>
-  <si>
-    <t>The state of the animal's reproductive organs.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/animal-genderstatus</t>
-  </si>
-  <si>
-    <t>genderStatusCode</t>
-  </si>
-  <si>
-    <t>Patient.communication</t>
-  </si>
-  <si>
-    <t>A list of Languages which may be used to communicate with the patient about his or her health</t>
-  </si>
-  <si>
-    <t>Languages which may be used to communicate with the patient about his or her health.</t>
-  </si>
-  <si>
-    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.</t>
-  </si>
-  <si>
-    <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency is an important things to keep track of both for patient and other persons of interest.</t>
-  </si>
-  <si>
     <t>LanguageCommunication</t>
   </si>
   <si>
@@ -1371,7 +1285,7 @@
     <t>Most systems in multilingual countries will want to convey language. Not all systems actually need the regional dialect.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/simple-language</t>
+    <t>http://hl7.org/fhir/us/core-r4/ValueSet/simple-language</t>
   </si>
   <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/languageCommunication/code</t>
@@ -1414,7 +1328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole]]}
 </t>
   </si>
   <si>
@@ -1424,8 +1338,9 @@
     <t>Patient's nominated care provider.</t>
   </si>
   <si>
-    <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disablity setting, or even organization that will provide people to perform the care provider roles.
-It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.</t>
+    <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disability setting, or even organization that will provide people to perform the care provider roles.  It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.
+Multiple GPs may be recorded against the patient for various reasons, such as a student that has his home GP listed along with the GP at university during the school semesters, or a "fly-in/fly-out" worker that has the onsite GP also included with his home GP to remain aware of medical issues.
+Jurisdictions may decide that they can profile this down to 1 if desired, or 1 per type.</t>
   </si>
   <si>
     <t>subjectOf.CareEvent.performer.AssignedEntity</t>
@@ -1461,12 +1376,12 @@
     <t>Link to another patient resource that concerns the same actual patient.</t>
   </si>
   <si>
-    <t>There is no assumption that linked patient records have mutual links. 
-This element is labelled as a modifier because it may not be the main Patient resource, and the referenced patient should be used instead of this Patient record. This is when the link.type value is 'replaced-by'.</t>
-  </si>
-  <si>
-    <t>There are multiple usecases: 
-* Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and * Distribution of patient information across multiple servers.</t>
+    <t>There is no assumption that linked patient records have mutual links.</t>
+  </si>
+  <si>
+    <t>There are multiple use cases:   
+* Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and 
+* Distribution of patient information across multiple servers.</t>
   </si>
   <si>
     <t>outboundLink</t>
@@ -1503,13 +1418,13 @@
     <t>Patient.link.type</t>
   </si>
   <si>
-    <t>replaced-by | replaces | refer | seealso - type of link</t>
+    <t>replaced-by | replaces | refer | seealso</t>
   </si>
   <si>
     <t>The type of link between this patient resource and another patient resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/link-type</t>
+    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.0</t>
   </si>
   <si>
     <t>typeCode</t>
@@ -1661,7 +1576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AR73"/>
+  <dimension ref="A1:AR66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1684,7 +1599,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="53.71875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1694,7 +1609,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.1171875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.0859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -1710,7 +1625,7 @@
     <col min="38" max="38" width="30.77734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="151.51171875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.390625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="22.9296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="33.046875" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="54.29296875" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="36.43359375" customWidth="true" bestFit="true"/>
   </cols>
@@ -1958,7 +1873,7 @@
         <v>53</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>47</v>
@@ -1969,7 +1884,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1980,28 +1895,28 @@
         <v>45</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>60</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2051,13 +1966,13 @@
         <v>47</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>47</v>
@@ -2092,7 +2007,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2103,25 +2018,25 @@
         <v>45</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2172,13 +2087,13 @@
         <v>47</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>47</v>
@@ -2213,7 +2128,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2224,28 +2139,28 @@
         <v>45</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>71</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2295,13 +2210,13 @@
         <v>47</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>47</v>
@@ -2336,7 +2251,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2347,7 +2262,7 @@
         <v>45</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>47</v>
@@ -2359,16 +2274,16 @@
         <v>47</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2394,37 +2309,37 @@
         <v>47</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>47</v>
@@ -2459,18 +2374,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>45</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>47</v>
@@ -2482,16 +2397,16 @@
         <v>47</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2541,31 +2456,31 @@
         <v>47</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>47</v>
@@ -2582,11 +2497,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2605,16 +2520,16 @@
         <v>47</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2664,7 +2579,7 @@
         <v>47</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>45</v>
@@ -2688,7 +2603,7 @@
         <v>47</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>47</v>
@@ -2705,7 +2620,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2728,13 +2643,13 @@
         <v>47</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2773,17 +2688,17 @@
         <v>47</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>45</v>
@@ -2824,10 +2739,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>47</v>
@@ -2837,11 +2752,11 @@
         <v>45</v>
       </c>
       <c r="F10" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G10" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G10" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H10" t="s" s="2">
         <v>47</v>
       </c>
@@ -2849,13 +2764,13 @@
         <v>47</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2906,7 +2821,7 @@
         <v>47</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>45</v>
@@ -2924,10 +2839,10 @@
         <v>47</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>47</v>
@@ -2947,10 +2862,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>47</v>
@@ -2960,11 +2875,11 @@
         <v>45</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H11" t="s" s="2">
         <v>47</v>
       </c>
@@ -2972,13 +2887,13 @@
         <v>47</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3029,7 +2944,7 @@
         <v>47</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>45</v>
@@ -3047,10 +2962,10 @@
         <v>47</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>47</v>
@@ -3070,10 +2985,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>47</v>
@@ -3083,11 +2998,11 @@
         <v>45</v>
       </c>
       <c r="F12" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G12" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G12" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H12" t="s" s="2">
         <v>47</v>
       </c>
@@ -3095,13 +3010,13 @@
         <v>47</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3152,7 +3067,7 @@
         <v>47</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>45</v>
@@ -3170,10 +3085,10 @@
         <v>47</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>47</v>
@@ -3193,11 +3108,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3210,24 +3125,26 @@
         <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>47</v>
       </c>
@@ -3275,7 +3192,7 @@
         <v>47</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>45</v>
@@ -3299,7 +3216,7 @@
         <v>47</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>47</v>
@@ -3316,7 +3233,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3324,32 +3241,32 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="H14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>47</v>
@@ -3398,7 +3315,7 @@
         <v>47</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>45</v>
@@ -3413,22 +3330,22 @@
         <v>47</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AK14" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>127</v>
@@ -3450,7 +3367,7 @@
         <v>45</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>47</v>
@@ -3525,7 +3442,7 @@
         <v>45</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>47</v>
@@ -3564,7 +3481,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3583,7 +3500,7 @@
         <v>47</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>135</v>
@@ -3592,7 +3509,7 @@
         <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3630,7 +3547,7 @@
         <v>47</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>137</v>
@@ -3639,7 +3556,7 @@
         <v>47</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>138</v>
@@ -3694,19 +3611,19 @@
         <v>45</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="I17" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>140</v>
@@ -3773,7 +3690,7 @@
         <v>45</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>47</v>
@@ -3800,7 +3717,7 @@
         <v>47</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>47</v>
@@ -3819,16 +3736,16 @@
         <v>45</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>150</v>
@@ -3868,13 +3785,13 @@
         <v>47</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>47</v>
@@ -3892,13 +3809,13 @@
         <v>47</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>47</v>
@@ -3925,7 +3842,7 @@
         <v>47</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>47</v>
@@ -3933,7 +3850,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3941,45 +3858,47 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G19" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="H19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="N19" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>47</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>47</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>47</v>
@@ -4015,13 +3934,13 @@
         <v>47</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>47</v>
@@ -4030,16 +3949,16 @@
         <v>47</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>47</v>
@@ -4048,7 +3967,7 @@
         <v>47</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>47</v>
@@ -4056,7 +3975,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4064,31 +3983,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="H20" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4102,7 +4021,7 @@
         <v>47</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>47</v>
@@ -4138,13 +4057,13 @@
         <v>47</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>47</v>
@@ -4156,13 +4075,13 @@
         <v>47</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>47</v>
@@ -4171,7 +4090,7 @@
         <v>47</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>47</v>
@@ -4179,7 +4098,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4190,25 +4109,25 @@
         <v>45</v>
       </c>
       <c r="F21" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4259,13 +4178,13 @@
         <v>47</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>47</v>
@@ -4283,7 +4202,7 @@
         <v>47</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>47</v>
@@ -4292,7 +4211,7 @@
         <v>47</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>47</v>
@@ -4300,7 +4219,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4311,28 +4230,28 @@
         <v>45</v>
       </c>
       <c r="F22" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4382,13 +4301,13 @@
         <v>47</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>47</v>
@@ -4406,7 +4325,7 @@
         <v>47</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>47</v>
@@ -4415,7 +4334,7 @@
         <v>47</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AQ22" t="s" s="2">
         <v>47</v>
@@ -4423,7 +4342,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4434,86 +4353,88 @@
         <v>45</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="I23" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="AF23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>47</v>
@@ -4531,13 +4452,13 @@
         <v>47</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>133</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>47</v>
@@ -4548,7 +4469,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4556,34 +4477,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>47</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>47</v>
@@ -4632,7 +4553,7 @@
         <v>47</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>45</v>
@@ -4650,22 +4571,22 @@
         <v>47</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AQ24" t="s" s="2">
         <v>47</v>
@@ -4673,7 +4594,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4684,7 +4605,7 @@
         <v>45</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>47</v>
@@ -4759,7 +4680,7 @@
         <v>45</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>47</v>
@@ -4794,11 +4715,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4817,7 +4738,7 @@
         <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>135</v>
@@ -4826,7 +4747,7 @@
         <v>136</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4864,7 +4785,7 @@
         <v>47</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AB26" t="s" s="2">
         <v>137</v>
@@ -4873,7 +4794,7 @@
         <v>47</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>138</v>
@@ -4917,7 +4838,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4928,31 +4849,31 @@
         <v>45</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="I27" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>47</v>
@@ -4980,10 +4901,10 @@
         <v>144</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>47</v>
@@ -5001,13 +4922,13 @@
         <v>47</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>47</v>
@@ -5025,7 +4946,7 @@
         <v>47</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>47</v>
@@ -5034,7 +4955,7 @@
         <v>47</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>47</v>
@@ -5042,7 +4963,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5053,31 +4974,31 @@
         <v>45</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>47</v>
@@ -5126,13 +5047,13 @@
         <v>47</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>47</v>
@@ -5150,7 +5071,7 @@
         <v>47</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>47</v>
@@ -5159,7 +5080,7 @@
         <v>47</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>47</v>
@@ -5167,39 +5088,39 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G29" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="H29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5249,13 +5170,13 @@
         <v>47</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>47</v>
@@ -5267,13 +5188,13 @@
         <v>47</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>47</v>
@@ -5282,7 +5203,7 @@
         <v>47</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>47</v>
@@ -5290,39 +5211,39 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>46</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>47</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5372,7 +5293,7 @@
         <v>47</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>45</v>
@@ -5390,13 +5311,13 @@
         <v>47</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>47</v>
@@ -5405,7 +5326,7 @@
         <v>47</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>47</v>
@@ -5413,7 +5334,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5433,16 +5354,16 @@
         <v>47</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5493,7 +5414,7 @@
         <v>47</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>45</v>
@@ -5517,7 +5438,7 @@
         <v>47</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>47</v>
@@ -5526,7 +5447,7 @@
         <v>47</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>47</v>
@@ -5534,7 +5455,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5554,16 +5475,16 @@
         <v>47</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>129</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5614,7 +5535,7 @@
         <v>47</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>45</v>
@@ -5638,7 +5559,7 @@
         <v>47</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>47</v>
@@ -5647,7 +5568,7 @@
         <v>47</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>47</v>
@@ -5655,7 +5576,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5666,29 +5587,29 @@
         <v>45</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>47</v>
@@ -5737,13 +5658,13 @@
         <v>47</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>47</v>
@@ -5761,7 +5682,7 @@
         <v>47</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>47</v>
@@ -5770,7 +5691,7 @@
         <v>47</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>47</v>
@@ -5778,7 +5699,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5798,22 +5719,22 @@
         <v>47</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>47</v>
@@ -5862,7 +5783,7 @@
         <v>47</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>45</v>
@@ -5886,16 +5807,16 @@
         <v>47</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>47</v>
@@ -5903,7 +5824,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5911,34 +5832,34 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G35" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="H35" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>47</v>
@@ -5967,7 +5888,7 @@
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>47</v>
@@ -5985,13 +5906,13 @@
         <v>47</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>47</v>
@@ -6003,22 +5924,22 @@
         <v>47</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="AQ35" t="s" s="2">
         <v>47</v>
@@ -6026,7 +5947,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6037,31 +5958,31 @@
         <v>45</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G36" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="H36" t="s" s="2">
         <v>47</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>47</v>
@@ -6110,13 +6031,13 @@
         <v>47</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>47</v>
@@ -6128,30 +6049,30 @@
         <v>47</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6162,31 +6083,31 @@
         <v>45</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>57</v>
-      </c>
       <c r="I37" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>47</v>
@@ -6235,13 +6156,13 @@
         <v>47</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>47</v>
@@ -6259,7 +6180,7 @@
         <v>47</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>133</v>
@@ -6268,7 +6189,7 @@
         <v>47</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>47</v>
@@ -6276,7 +6197,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6296,22 +6217,22 @@
         <v>47</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>47</v>
@@ -6360,7 +6281,7 @@
         <v>47</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>45</v>
@@ -6384,16 +6305,16 @@
         <v>47</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>47</v>
@@ -6401,7 +6322,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6412,7 +6333,7 @@
         <v>45</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>47</v>
@@ -6427,14 +6348,14 @@
         <v>150</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>47</v>
@@ -6459,13 +6380,13 @@
         <v>47</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>47</v>
@@ -6483,13 +6404,13 @@
         <v>47</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>47</v>
@@ -6507,16 +6428,16 @@
         <v>47</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AQ39" t="s" s="2">
         <v>47</v>
@@ -6524,7 +6445,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6535,7 +6456,7 @@
         <v>45</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>47</v>
@@ -6547,19 +6468,19 @@
         <v>47</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>47</v>
@@ -6608,13 +6529,13 @@
         <v>47</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>47</v>
@@ -6632,7 +6553,7 @@
         <v>47</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>133</v>
@@ -6641,7 +6562,7 @@
         <v>47</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>47</v>
@@ -6649,7 +6570,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6672,17 +6593,19 @@
         <v>47</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>47</v>
@@ -6731,7 +6654,7 @@
         <v>47</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>45</v>
@@ -6755,7 +6678,7 @@
         <v>47</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>133</v>
@@ -6764,7 +6687,7 @@
         <v>47</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>47</v>
@@ -6772,7 +6695,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6795,19 +6718,19 @@
         <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>47</v>
@@ -6856,7 +6779,7 @@
         <v>47</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>45</v>
@@ -6868,7 +6791,7 @@
         <v>47</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>47</v>
@@ -6880,7 +6803,7 @@
         <v>47</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>133</v>
@@ -6897,7 +6820,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6908,7 +6831,7 @@
         <v>45</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>47</v>
@@ -6983,7 +6906,7 @@
         <v>45</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>47</v>
@@ -7018,11 +6941,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7041,7 +6964,7 @@
         <v>47</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>135</v>
@@ -7050,7 +6973,7 @@
         <v>136</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7141,11 +7064,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7158,24 +7081,26 @@
         <v>47</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L45" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>47</v>
       </c>
@@ -7223,7 +7148,7 @@
         <v>47</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>45</v>
@@ -7247,7 +7172,7 @@
         <v>47</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>47</v>
@@ -7264,7 +7189,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7290,14 +7215,14 @@
         <v>150</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>47</v>
@@ -7322,31 +7247,31 @@
         <v>47</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>45</v>
@@ -7370,7 +7295,7 @@
         <v>47</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>133</v>
@@ -7379,7 +7304,7 @@
         <v>47</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>47</v>
@@ -7387,7 +7312,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7398,7 +7323,7 @@
         <v>45</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>47</v>
@@ -7410,17 +7335,17 @@
         <v>47</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>47</v>
@@ -7469,13 +7394,13 @@
         <v>47</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>47</v>
@@ -7493,7 +7418,7 @@
         <v>47</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>133</v>
@@ -7502,7 +7427,7 @@
         <v>47</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="AQ47" t="s" s="2">
         <v>47</v>
@@ -7510,7 +7435,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7533,19 +7458,19 @@
         <v>47</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>47</v>
@@ -7594,7 +7519,7 @@
         <v>47</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>45</v>
@@ -7618,7 +7543,7 @@
         <v>47</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>133</v>
@@ -7627,7 +7552,7 @@
         <v>47</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>47</v>
@@ -7635,7 +7560,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7646,7 +7571,7 @@
         <v>45</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>47</v>
@@ -7658,17 +7583,17 @@
         <v>47</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>47</v>
@@ -7717,13 +7642,13 @@
         <v>47</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>47</v>
@@ -7741,7 +7666,7 @@
         <v>47</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>133</v>
@@ -7750,7 +7675,7 @@
         <v>47</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AQ49" t="s" s="2">
         <v>47</v>
@@ -7758,7 +7683,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7769,7 +7694,7 @@
         <v>45</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>47</v>
@@ -7781,17 +7706,17 @@
         <v>47</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>47</v>
@@ -7819,10 +7744,10 @@
         <v>144</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>279</v>
+        <v>379</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>47</v>
@@ -7840,13 +7765,13 @@
         <v>47</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>47</v>
@@ -7864,7 +7789,7 @@
         <v>47</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>133</v>
@@ -7873,7 +7798,7 @@
         <v>47</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="AQ50" t="s" s="2">
         <v>47</v>
@@ -7881,7 +7806,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7892,7 +7817,7 @@
         <v>45</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>47</v>
@@ -7904,17 +7829,17 @@
         <v>47</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>47</v>
@@ -7963,16 +7888,16 @@
         <v>47</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>47</v>
@@ -7987,7 +7912,7 @@
         <v>47</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>133</v>
@@ -7996,7 +7921,7 @@
         <v>47</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="AQ51" t="s" s="2">
         <v>47</v>
@@ -8004,7 +7929,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8015,7 +7940,7 @@
         <v>45</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>47</v>
@@ -8027,13 +7952,13 @@
         <v>47</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8084,13 +8009,13 @@
         <v>47</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>47</v>
@@ -8108,7 +8033,7 @@
         <v>47</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>133</v>
@@ -8123,9 +8048,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8136,31 +8061,31 @@
         <v>45</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>47</v>
@@ -8209,34 +8134,34 @@
         <v>47</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="AL53" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>133</v>
+        <v>399</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>47</v>
@@ -8250,7 +8175,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8261,7 +8186,7 @@
         <v>45</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>47</v>
@@ -8336,7 +8261,7 @@
         <v>45</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>47</v>
@@ -8371,11 +8296,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8394,7 +8319,7 @@
         <v>47</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>135</v>
@@ -8403,7 +8328,7 @@
         <v>136</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8494,11 +8419,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8511,24 +8436,26 @@
         <v>47</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>47</v>
       </c>
@@ -8576,7 +8503,7 @@
         <v>47</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>45</v>
@@ -8600,7 +8527,7 @@
         <v>47</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>47</v>
@@ -8615,9 +8542,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8625,34 +8552,34 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G57" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F57" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="H57" t="s" s="2">
         <v>47</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>150</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>47</v>
@@ -8677,37 +8604,35 @@
         <v>47</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="X57" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="X57" s="2"/>
+      <c r="Y57" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="AF57" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>47</v>
@@ -8719,22 +8644,22 @@
         <v>47</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>47</v>
+        <v>403</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>47</v>
+        <v>403</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>133</v>
+        <v>410</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>47</v>
@@ -8742,7 +8667,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8753,7 +8678,7 @@
         <v>45</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>47</v>
@@ -8762,22 +8687,22 @@
         <v>47</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>47</v>
@@ -8802,37 +8727,37 @@
         <v>47</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>402</v>
+        <v>47</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>411</v>
+        <v>47</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AE58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Z58" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="AF58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>47</v>
@@ -8850,16 +8775,16 @@
         <v>47</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>133</v>
+        <v>418</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>47</v>
@@ -8867,18 +8792,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>47</v>
+        <v>421</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>47</v>
@@ -8887,21 +8812,21 @@
         <v>47</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>150</v>
+        <v>422</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>47</v>
       </c>
@@ -8925,37 +8850,37 @@
         <v>47</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>402</v>
+        <v>47</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>419</v>
+        <v>47</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="AF59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>47</v>
@@ -8973,7 +8898,7 @@
         <v>47</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>133</v>
@@ -8982,15 +8907,15 @@
         <v>47</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>99</v>
+        <v>427</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9001,31 +8926,31 @@
         <v>45</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>47</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>335</v>
+        <v>187</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>47</v>
@@ -9074,34 +8999,34 @@
         <v>47</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>392</v>
+        <v>47</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>422</v>
+        <v>47</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>422</v>
+        <v>47</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>47</v>
@@ -9115,7 +9040,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9126,28 +9051,32 @@
         <v>45</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H61" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="I61" t="s" s="2">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>129</v>
+        <v>338</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>130</v>
+        <v>435</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>47</v>
       </c>
@@ -9195,19 +9124,19 @@
         <v>47</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>132</v>
+        <v>434</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>47</v>
+        <v>397</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>47</v>
@@ -9219,10 +9148,10 @@
         <v>47</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>47</v>
@@ -9236,18 +9165,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>47</v>
@@ -9259,17 +9188,15 @@
         <v>47</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>47</v>
@@ -9318,13 +9245,13 @@
         <v>47</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>47</v>
@@ -9359,11 +9286,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>345</v>
+        <v>112</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9376,22 +9303,22 @@
         <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9441,7 +9368,7 @@
         <v>47</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>347</v>
+        <v>138</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>45</v>
@@ -9465,7 +9392,7 @@
         <v>47</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>47</v>
@@ -9480,44 +9407,44 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>47</v>
+        <v>348</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H64" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="I64" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G64" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="J64" t="s" s="2">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>433</v>
+        <v>349</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>434</v>
+        <v>350</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>435</v>
+        <v>115</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>436</v>
+        <v>116</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>47</v>
@@ -9542,11 +9469,13 @@
         <v>47</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X64" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>47</v>
+      </c>
       <c r="Y64" t="s" s="2">
-        <v>437</v>
+        <v>47</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>47</v>
@@ -9564,13 +9493,13 @@
         <v>47</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>432</v>
+        <v>351</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>47</v>
@@ -9582,22 +9511,22 @@
         <v>47</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>432</v>
+        <v>47</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>432</v>
+        <v>47</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>438</v>
+        <v>97</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>439</v>
+        <v>47</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>47</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>440</v>
+        <v>47</v>
       </c>
       <c r="AQ64" t="s" s="2">
         <v>47</v>
@@ -9605,7 +9534,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9613,35 +9542,33 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>193</v>
+        <v>444</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>47</v>
       </c>
@@ -9689,13 +9616,13 @@
         <v>47</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>47</v>
@@ -9713,10 +9640,10 @@
         <v>47</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>446</v>
+        <v>124</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>447</v>
+        <v>133</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>47</v>
@@ -9734,14 +9661,14 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>450</v>
+        <v>47</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>47</v>
@@ -9750,20 +9677,18 @@
         <v>47</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="K66" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>454</v>
-      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>47</v>
@@ -9788,13 +9713,13 @@
         <v>47</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>47</v>
+        <v>144</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>47</v>
+        <v>451</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>47</v>
+        <v>452</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>47</v>
@@ -9815,10 +9740,10 @@
         <v>449</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>47</v>
@@ -9836,7 +9761,7 @@
         <v>47</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>133</v>
@@ -9845,875 +9770,14 @@
         <v>47</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>456</v>
+        <v>47</v>
       </c>
       <c r="AQ66" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AQ67" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AQ68" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AQ69" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AQ70" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AQ71" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AQ72" t="s" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AQ73" t="s" s="2">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ73">
+  <autoFilter ref="A1:AQ66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10723,7 +9787,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/template-profile-on-profile.xlsx
+++ b/docs/template-profile-on-profile.xlsx
@@ -382,7 +382,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](file:/Users/ehaas/Documents/FHIR/US-Core-R4/output/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -559,7 +559,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](file:/Users/ehaas/Documents/FHIR/US-Core-R4/output/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>

--- a/docs/template-profile-on-profile.xlsx
+++ b/docs/template-profile-on-profile.xlsx
@@ -1573,7 +1573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ66"/>
+  <dimension ref="A1:AP66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/docs/template-profile-on-profile.xlsx
+++ b/docs/template-profile-on-profile.xlsx
@@ -187,7 +187,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -206,7 +206,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -222,7 +222,7 @@
     <t>Patient.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -241,7 +241,7 @@
     <t>Patient.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -273,7 +273,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -299,7 +299,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -321,7 +321,7 @@
     <t>Patient.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -344,21 +344,21 @@
     <t>race</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-race]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-race}
 </t>
   </si>
   <si>
     <t>ethnicity</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-ethnicity}
 </t>
   </si>
   <si>
     <t>birthsex</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/core/StructureDefinition/us-core-birthsex}
 </t>
   </si>
   <si>
@@ -388,7 +388,7 @@
     <t>Patient.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -419,7 +419,7 @@
     <t>Patient.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -483,7 +483,7 @@
     <t>Patient.identifier.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -529,10 +529,10 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://Healthedata1/IG-Template/patient-ids"/&gt;</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://www.acme.com/identifiers/patient"/&gt;</t>
+    <t>http://Healthedata1/IG-Template/patient-ids</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -559,7 +559,7 @@
     <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="123456"/&gt;</t>
+    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -574,7 +574,7 @@
     <t>Patient.identifier.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -596,7 +596,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -621,7 +621,7 @@
     <t>Patient.active</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -652,7 +652,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {[]} {[]}
+    <t xml:space="preserve">HumanName
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {[]} {[]}
+    <t xml:space="preserve">ContactPoint
 </t>
   </si>
   <si>
@@ -902,7 +902,7 @@
     <t>Patient.birthDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -933,8 +933,8 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-dateTime {[]} {[]}</t>
+    <t>boolean
+dateTime</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not</t>
@@ -958,7 +958,7 @@
     <t>Patient.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {[]} {[]}
+    <t xml:space="preserve">Address
 </t>
   </si>
   <si>
@@ -1013,8 +1013,8 @@
     <t>Patient.multipleBirth[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-integer {[]} {[]}</t>
+    <t>boolean
+integer</t>
   </si>
   <si>
     <t>Whether patient is part of a multiple birth</t>
@@ -1038,7 +1038,7 @@
     <t>Patient.photo</t>
   </si>
   <si>
-    <t xml:space="preserve">Attachment {[]} {[]}
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
@@ -1066,7 +1066,7 @@
     <t>Patient.contact</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1325,7 +1325,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole]]}
+    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1477,67 +1477,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>

--- a/docs/template-profile-on-profile.xlsx
+++ b/docs/template-profile-on-profile.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$85</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="583">
   <si>
     <t>Path</t>
   </si>
@@ -348,6 +348,20 @@
 </t>
   </si>
   <si>
+    <t>US Core Race Extension</t>
+  </si>
+  <si>
+    <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The race codes used to represent these concepts are based upon the [CDC Race and Ethnicity Code Set Version 1.0](http://www.cdc.gov/phin/resources/vocabulary/index.html) which includes over 900 concepts for representing race and ethnicity of which 921 reference race.  The race concepts are grouped by and pre-mapped to the 5 OMB race categories: - American Indian or Alaska Native - Asian - Black or African American - Native Hawaiian or Other Pacific Islander - White.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {children().count() &gt; id.count()}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>ethnicity</t>
   </si>
   <si>
@@ -355,6 +369,12 @@
 </t>
   </si>
   <si>
+    <t>US Core ethnicity Extension</t>
+  </si>
+  <si>
+    <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The ethnicity codes used to represent these concepts are based upon the [CDC ethnicity and Ethnicity Code Set Version 1.0](http://www.cdc.gov/phin/resources/vocabulary/index.html) which includes over 900 concepts for representing race and ethnicity of which 43 reference ethnicity.  The ethnicity concepts are grouped by and pre-mapped to the 2 OMB ethnicity categories: - Hispanic or Latino - Not Hispanic or Latino.</t>
+  </si>
+  <si>
     <t>birthsex</t>
   </si>
   <si>
@@ -362,6 +382,15 @@
 </t>
   </si>
   <si>
+    <t>A code classifying the person's sex assigned at birth  as specified by the [Office of the National Coordinator for Health IT (ONC)](https://www.healthit.gov/newsroom/about-onc).</t>
+  </si>
+  <si>
+    <t>The codes required are intended to present birth sex (i.e., the sex recorded on the patient’s birth certificate) and not gender identity or reassigned sex.</t>
+  </si>
+  <si>
+    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
+  </si>
+  <si>
     <t>Patient.modifierExtension</t>
   </si>
   <si>
@@ -379,7 +408,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -556,7 +585,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -668,6 +697,10 @@
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
+    <t xml:space="preserve">us-core-8:Patient.name.given or Patient.name.family or both SHALL be present {family.exists() or given.exists()}
+</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -863,6 +896,9 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -872,6 +908,119 @@
     <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
+    <t>Patient.telecom.id</t>
+  </si>
+  <si>
+    <t>Patient.telecom.extension</t>
+  </si>
+  <si>
+    <t>Patient.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>Patient.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>Patient.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>Patient.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>Patient.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
     <t>Patient.gender</t>
   </si>
   <si>
@@ -888,9 +1037,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
-  </si>
-  <si>
-    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
   </si>
   <si>
     <t>.patient.administrativeGenderCode</t>
@@ -981,6 +1127,262 @@
   </si>
   <si>
     <t>PID-11</t>
+  </si>
+  <si>
+    <t>Patient.address.id</t>
+  </si>
+  <si>
+    <t>Patient.address.extension</t>
+  </si>
+  <si>
+    <t>Patient.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.0</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>XAD.7</t>
+  </si>
+  <si>
+    <t>Patient.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.0</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>XAD.18</t>
+  </si>
+  <si>
+    <t>Patient.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
+  </si>
+  <si>
+    <t>Patient.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>XAD.3</t>
+  </si>
+  <si>
+    <t>Patient.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>XAD.9</t>
+  </si>
+  <si>
+    <t>Patient.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Two Letter USPS alphabetic codes.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>XAD.4</t>
+  </si>
+  <si>
+    <t>Patient.address.postalCode</t>
+  </si>
+  <si>
+    <t>Zip
+Zip Code</t>
+  </si>
+  <si>
+    <t>US Zip Codes</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>XAD.5</t>
+  </si>
+  <si>
+    <t>Patient.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>XAD.6</t>
+  </si>
+  <si>
+    <t>Patient.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-22T21:00:00-07:00"/&gt;
+  &lt;end value="2010-06-30T21:00:00-07:00"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1573,7 +1975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP66"/>
+  <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1606,7 +2008,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.4609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.62890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -1622,7 +2024,7 @@
     <col min="38" max="38" width="151.51171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="39.390625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="54.29296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="103.671875" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="36.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2736,10 +3138,10 @@
         <v>105</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2799,10 +3201,10 @@
         <v>45</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>46</v>
@@ -2831,7 +3233,7 @@
         <v>97</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>46</v>
@@ -2853,13 +3255,13 @@
         <v>46</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2919,10 +3321,10 @@
         <v>45</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>46</v>
@@ -2951,7 +3353,7 @@
         <v>97</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>46</v>
@@ -2973,15 +3375,17 @@
         <v>46</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>46</v>
@@ -3039,10 +3443,10 @@
         <v>45</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>46</v>
@@ -3051,7 +3455,7 @@
         <v>97</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>46</v>
@@ -3068,11 +3472,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3094,16 +3498,16 @@
         <v>98</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>46</v>
@@ -3152,7 +3556,7 @@
         <v>46</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>44</v>
@@ -3190,7 +3594,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3213,17 +3617,17 @@
         <v>55</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>46</v>
@@ -3272,7 +3676,7 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3287,22 +3691,22 @@
         <v>46</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
@@ -3310,7 +3714,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3333,13 +3737,13 @@
         <v>46</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3390,7 +3794,7 @@
         <v>46</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>44</v>
@@ -3411,7 +3815,7 @@
         <v>46</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>46</v>
@@ -3428,11 +3832,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3454,13 +3858,13 @@
         <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3501,7 +3905,7 @@
         <v>101</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>46</v>
@@ -3510,7 +3914,7 @@
         <v>102</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3531,7 +3935,7 @@
         <v>46</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>46</v>
@@ -3548,7 +3952,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3574,16 +3978,16 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>46</v>
@@ -3608,13 +4012,13 @@
         <v>46</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>46</v>
@@ -3632,7 +4036,7 @@
         <v>46</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3653,7 +4057,7 @@
         <v>46</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>46</v>
@@ -3670,7 +4074,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3693,19 +4097,19 @@
         <v>55</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -3730,13 +4134,13 @@
         <v>46</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>46</v>
@@ -3754,7 +4158,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -3775,7 +4179,7 @@
         <v>46</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>46</v>
@@ -3784,7 +4188,7 @@
         <v>46</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>46</v>
@@ -3792,7 +4196,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3818,29 +4222,29 @@
         <v>67</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>46</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>46</v>
@@ -3876,7 +4280,7 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -3891,13 +4295,13 @@
         <v>46</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>46</v>
@@ -3906,7 +4310,7 @@
         <v>46</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>46</v>
@@ -3914,7 +4318,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3937,16 +4341,16 @@
         <v>55</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3960,7 +4364,7 @@
         <v>46</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>46</v>
@@ -3996,7 +4400,7 @@
         <v>46</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4014,10 +4418,10 @@
         <v>46</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>46</v>
@@ -4026,7 +4430,7 @@
         <v>46</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>46</v>
@@ -4034,7 +4438,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4057,13 +4461,13 @@
         <v>55</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4114,7 +4518,7 @@
         <v>46</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
@@ -4135,7 +4539,7 @@
         <v>46</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>46</v>
@@ -4144,7 +4548,7 @@
         <v>46</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>46</v>
@@ -4152,7 +4556,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4175,16 +4579,16 @@
         <v>55</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4234,7 +4638,7 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>44</v>
@@ -4255,7 +4659,7 @@
         <v>46</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>46</v>
@@ -4264,7 +4668,7 @@
         <v>46</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>46</v>
@@ -4272,7 +4676,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4295,25 +4699,25 @@
         <v>55</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q23" t="s" s="2">
         <v>46</v>
@@ -4358,7 +4762,7 @@
         <v>46</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
@@ -4379,13 +4783,13 @@
         <v>46</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>46</v>
@@ -4396,7 +4800,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4419,19 +4823,19 @@
         <v>55</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>46</v>
@@ -4480,7 +4884,7 @@
         <v>46</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>44</v>
@@ -4492,25 +4896,25 @@
         <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>46</v>
@@ -4518,7 +4922,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4541,13 +4945,13 @@
         <v>46</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4598,7 +5002,7 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
@@ -4619,7 +5023,7 @@
         <v>46</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>46</v>
@@ -4636,11 +5040,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4662,13 +5066,13 @@
         <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4709,7 +5113,7 @@
         <v>101</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>46</v>
@@ -4718,7 +5122,7 @@
         <v>102</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
@@ -4739,7 +5143,7 @@
         <v>46</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>46</v>
@@ -4756,7 +5160,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4782,16 +5186,16 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -4816,13 +5220,13 @@
         <v>46</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>46</v>
@@ -4840,7 +5244,7 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -4861,7 +5265,7 @@
         <v>46</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>46</v>
@@ -4870,7 +5274,7 @@
         <v>46</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -4878,7 +5282,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4901,19 +5305,19 @@
         <v>55</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -4962,7 +5366,7 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -4983,7 +5387,7 @@
         <v>46</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>46</v>
@@ -4992,7 +5396,7 @@
         <v>46</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>46</v>
@@ -5000,15 +5404,15 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>54</v>
@@ -5023,16 +5427,16 @@
         <v>55</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5082,7 +5486,7 @@
         <v>46</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -5100,10 +5504,10 @@
         <v>46</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>46</v>
@@ -5112,7 +5516,7 @@
         <v>46</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>46</v>
@@ -5120,15 +5524,15 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>45</v>
@@ -5143,16 +5547,16 @@
         <v>55</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5202,7 +5606,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5220,10 +5624,10 @@
         <v>46</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>46</v>
@@ -5232,7 +5636,7 @@
         <v>46</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5240,7 +5644,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5263,13 +5667,13 @@
         <v>55</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5320,7 +5724,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5341,7 +5745,7 @@
         <v>46</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>46</v>
@@ -5350,7 +5754,7 @@
         <v>46</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>46</v>
@@ -5358,7 +5762,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5381,13 +5785,13 @@
         <v>55</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5438,7 +5842,7 @@
         <v>46</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5459,7 +5863,7 @@
         <v>46</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>46</v>
@@ -5468,7 +5872,7 @@
         <v>46</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>46</v>
@@ -5476,7 +5880,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5499,17 +5903,17 @@
         <v>55</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>46</v>
@@ -5558,7 +5962,7 @@
         <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5579,7 +5983,7 @@
         <v>46</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>46</v>
@@ -5588,15 +5992,15 @@
         <v>46</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5610,7 +6014,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>46</v>
@@ -5619,19 +6023,19 @@
         <v>55</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>46</v>
@@ -5680,7 +6084,7 @@
         <v>46</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -5698,27 +6102,27 @@
         <v>46</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5726,35 +6130,31 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>54</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>276</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>46</v>
       </c>
@@ -5778,11 +6178,13 @@
         <v>46</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>280</v>
+        <v>46</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>46</v>
@@ -5800,7 +6202,7 @@
         <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -5818,63 +6220,61 @@
         <v>46</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>46</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>141</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>283</v>
+        <v>46</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>285</v>
+        <v>98</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>286</v>
+        <v>143</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>289</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>46</v>
       </c>
@@ -5910,25 +6310,25 @@
         <v>46</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>284</v>
+        <v>146</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>46</v>
@@ -5940,27 +6340,27 @@
         <v>46</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>284</v>
+        <v>46</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>290</v>
+        <v>141</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>291</v>
+        <v>46</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>292</v>
+        <v>46</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>293</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5968,35 +6368,31 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>54</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>46</v>
       </c>
@@ -6020,13 +6416,13 @@
         <v>46</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>46</v>
@@ -6044,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6053,7 +6449,7 @@
         <v>54</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>46</v>
@@ -6062,27 +6458,27 @@
         <v>46</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6090,13 +6486,13 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>46</v>
@@ -6105,19 +6501,19 @@
         <v>55</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>303</v>
+        <v>137</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>46</v>
@@ -6172,7 +6568,7 @@
         <v>44</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>46</v>
@@ -6184,27 +6580,27 @@
         <v>46</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>309</v>
+        <v>46</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6218,26 +6614,28 @@
         <v>54</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>46</v>
@@ -6262,13 +6660,11 @@
         <v>46</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="X39" s="2"/>
       <c r="Y39" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>46</v>
@@ -6304,19 +6700,19 @@
         <v>46</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>231</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>318</v>
+        <v>46</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>46</v>
@@ -6324,7 +6720,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6344,23 +6740,21 @@
         <v>46</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>46</v>
       </c>
@@ -6408,7 +6802,7 @@
         <v>46</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6429,16 +6823,16 @@
         <v>46</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>141</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>327</v>
+        <v>141</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>46</v>
@@ -6446,7 +6840,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6457,7 +6851,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>46</v>
@@ -6466,23 +6860,19 @@
         <v>46</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>329</v>
+        <v>188</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>46</v>
       </c>
@@ -6530,13 +6920,13 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>46</v>
@@ -6551,24 +6941,24 @@
         <v>46</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>335</v>
+        <v>96</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6576,34 +6966,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>337</v>
+        <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>46</v>
@@ -6628,13 +7018,11 @@
         <v>46</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>46</v>
+        <v>328</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>46</v>
@@ -6652,45 +7040,45 @@
         <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>342</v>
+        <v>46</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>343</v>
+        <v>118</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6704,25 +7092,29 @@
         <v>54</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>46</v>
       </c>
@@ -6770,7 +7162,7 @@
         <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>131</v>
+        <v>331</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -6788,61 +7180,63 @@
         <v>46</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>132</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>46</v>
+        <v>338</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>46</v>
+        <v>339</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>46</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>98</v>
+        <v>342</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>135</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>46</v>
       </c>
@@ -6890,13 +7284,13 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>137</v>
+        <v>341</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>46</v>
@@ -6911,28 +7305,28 @@
         <v>46</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>132</v>
+        <v>347</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>46</v>
+        <v>348</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>347</v>
+        <v>46</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6942,28 +7336,28 @@
         <v>45</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>98</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>114</v>
+        <v>353</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>115</v>
+        <v>354</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>46</v>
@@ -7012,7 +7406,7 @@
         <v>46</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -7030,19 +7424,19 @@
         <v>46</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>96</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>46</v>
+        <v>356</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>46</v>
+        <v>357</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>46</v>
@@ -7050,7 +7444,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7061,7 +7455,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>46</v>
@@ -7073,18 +7467,16 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>352</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
+        <v>139</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>354</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>46</v>
       </c>
@@ -7108,13 +7500,13 @@
         <v>46</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>355</v>
+        <v>46</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>356</v>
+        <v>46</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>46</v>
@@ -7132,13 +7524,13 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>351</v>
+        <v>140</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>46</v>
@@ -7153,16 +7545,16 @@
         <v>46</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>357</v>
+        <v>141</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>358</v>
+        <v>46</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>46</v>
@@ -7174,14 +7566,14 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>46</v>
@@ -7193,18 +7585,18 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>360</v>
+        <v>143</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>46</v>
       </c>
@@ -7240,25 +7632,25 @@
         <v>46</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>359</v>
+        <v>146</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>46</v>
@@ -7273,16 +7665,16 @@
         <v>46</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>363</v>
+        <v>46</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>46</v>
@@ -7290,7 +7682,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7301,31 +7693,31 @@
         <v>44</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>271</v>
+        <v>364</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>46</v>
@@ -7338,7 +7730,7 @@
         <v>46</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>46</v>
@@ -7350,13 +7742,13 @@
         <v>46</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>46</v>
+        <v>366</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>46</v>
+        <v>367</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>46</v>
@@ -7374,13 +7766,13 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>46</v>
@@ -7395,16 +7787,16 @@
         <v>46</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>46</v>
@@ -7412,7 +7804,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7432,21 +7824,21 @@
         <v>46</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>303</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" t="s" s="2">
         <v>372</v>
       </c>
+      <c r="M49" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>46</v>
       </c>
@@ -7458,7 +7850,7 @@
         <v>46</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>46</v>
+        <v>374</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>46</v>
@@ -7470,13 +7862,13 @@
         <v>46</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>46</v>
+        <v>375</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>46</v>
+        <v>376</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>46</v>
@@ -7494,7 +7886,7 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
@@ -7515,16 +7907,16 @@
         <v>46</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>46</v>
@@ -7532,7 +7924,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7552,20 +7944,22 @@
         <v>46</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>276</v>
+        <v>380</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="N50" t="s" s="2">
-        <v>376</v>
+        <v>237</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>46</v>
@@ -7578,7 +7972,7 @@
         <v>46</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>46</v>
+        <v>383</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>46</v>
@@ -7590,13 +7984,13 @@
         <v>46</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>377</v>
+        <v>46</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>378</v>
+        <v>46</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>46</v>
@@ -7614,7 +8008,7 @@
         <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
@@ -7635,24 +8029,24 @@
         <v>46</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7663,30 +8057,28 @@
         <v>44</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>383</v>
-      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>46</v>
       </c>
@@ -7698,7 +8090,7 @@
         <v>46</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>46</v>
+        <v>389</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>46</v>
@@ -7734,16 +8126,16 @@
         <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>384</v>
+        <v>46</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>46</v>
@@ -7752,31 +8144,31 @@
         <v>46</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>46</v>
+        <v>394</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7786,22 +8178,22 @@
         <v>54</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7816,7 +8208,7 @@
         <v>46</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>46</v>
+        <v>397</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>46</v>
@@ -7852,7 +8244,7 @@
         <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
@@ -7870,63 +8262,61 @@
         <v>46</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>46</v>
+        <v>400</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>46</v>
+        <v>402</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="H53" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>337</v>
+        <v>137</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>46</v>
       </c>
@@ -7938,7 +8328,7 @@
         <v>46</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>46</v>
+        <v>406</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>46</v>
@@ -7974,49 +8364,49 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>396</v>
+        <v>46</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>391</v>
+        <v>46</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>398</v>
+        <v>46</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>46</v>
+        <v>409</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>46</v>
+        <v>411</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8026,22 +8416,22 @@
         <v>54</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>129</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>130</v>
+        <v>413</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8068,13 +8458,13 @@
         <v>46</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>46</v>
+        <v>414</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>46</v>
+        <v>415</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>46</v>
@@ -8092,7 +8482,7 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>131</v>
+        <v>416</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8110,10 +8500,10 @@
         <v>46</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>132</v>
+        <v>417</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>46</v>
@@ -8122,48 +8512,46 @@
         <v>46</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>46</v>
+        <v>418</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>111</v>
+        <v>420</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>134</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>46</v>
@@ -8176,7 +8564,7 @@
         <v>46</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>46</v>
+        <v>423</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>46</v>
@@ -8212,13 +8600,13 @@
         <v>46</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>137</v>
+        <v>424</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>46</v>
@@ -8230,10 +8618,10 @@
         <v>46</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>132</v>
+        <v>425</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>46</v>
@@ -8242,7 +8630,7 @@
         <v>46</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>46</v>
+        <v>426</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>46</v>
@@ -8250,43 +8638,41 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>347</v>
+        <v>46</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>348</v>
+        <v>428</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>349</v>
+        <v>429</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>46</v>
       </c>
@@ -8334,13 +8720,13 @@
         <v>46</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>350</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>46</v>
@@ -8355,7 +8741,7 @@
         <v>46</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>96</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>46</v>
@@ -8364,7 +8750,7 @@
         <v>46</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>46</v>
+        <v>433</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>46</v>
@@ -8372,7 +8758,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8380,7 +8766,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>54</v>
@@ -8392,22 +8778,20 @@
         <v>46</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>46</v>
@@ -8420,7 +8804,7 @@
         <v>46</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>46</v>
+        <v>438</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>46</v>
@@ -8432,11 +8816,13 @@
         <v>46</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X57" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>407</v>
+        <v>46</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>46</v>
@@ -8454,10 +8840,10 @@
         <v>46</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>54</v>
@@ -8472,19 +8858,19 @@
         <v>46</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>402</v>
+        <v>282</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>408</v>
+        <v>274</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>409</v>
+        <v>46</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>46</v>
@@ -8492,7 +8878,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8515,19 +8901,17 @@
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>412</v>
+        <v>442</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="M58" s="2"/>
       <c r="N58" t="s" s="2">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>46</v>
@@ -8552,13 +8936,13 @@
         <v>46</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>46</v>
+        <v>445</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>46</v>
+        <v>446</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>46</v>
@@ -8576,7 +8960,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -8597,16 +8981,16 @@
         <v>46</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>46</v>
@@ -8614,18 +8998,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>420</v>
+        <v>46</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>46</v>
@@ -8637,18 +9021,20 @@
         <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>421</v>
+        <v>451</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>46</v>
       </c>
@@ -8696,13 +9082,13 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>46</v>
@@ -8717,16 +9103,16 @@
         <v>46</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>46</v>
@@ -8734,7 +9120,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8745,7 +9131,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>46</v>
@@ -8754,22 +9140,22 @@
         <v>46</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>186</v>
+        <v>459</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>46</v>
@@ -8818,13 +9204,13 @@
         <v>46</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>46</v>
@@ -8839,16 +9225,16 @@
         <v>46</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>385</v>
+        <v>464</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>432</v>
+        <v>141</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>46</v>
+        <v>465</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>46</v>
@@ -8856,7 +9242,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8873,25 +9259,25 @@
         <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>337</v>
+        <v>467</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>46</v>
@@ -8940,7 +9326,7 @@
         <v>46</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>433</v>
+        <v>466</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
@@ -8952,7 +9338,7 @@
         <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>46</v>
@@ -8961,10 +9347,10 @@
         <v>46</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>438</v>
+        <v>473</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>46</v>
@@ -8978,7 +9364,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9001,13 +9387,13 @@
         <v>46</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9058,7 +9444,7 @@
         <v>46</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
@@ -9079,7 +9465,7 @@
         <v>46</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>46</v>
@@ -9096,11 +9482,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>440</v>
+        <v>475</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9122,13 +9508,13 @@
         <v>98</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9178,7 +9564,7 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
@@ -9199,7 +9585,7 @@
         <v>46</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>46</v>
@@ -9216,11 +9602,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>347</v>
+        <v>477</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9242,16 +9628,16 @@
         <v>98</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>348</v>
+        <v>478</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>349</v>
+        <v>479</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>46</v>
@@ -9300,7 +9686,7 @@
         <v>46</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>44</v>
@@ -9338,7 +9724,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9346,10 +9732,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>46</v>
@@ -9358,21 +9744,21 @@
         <v>46</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>443</v>
+        <v>158</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>46</v>
       </c>
@@ -9396,13 +9782,13 @@
         <v>46</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>46</v>
+        <v>485</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>46</v>
+        <v>486</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>46</v>
@@ -9420,13 +9806,13 @@
         <v>46</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>442</v>
+        <v>481</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>46</v>
@@ -9441,16 +9827,16 @@
         <v>46</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>123</v>
+        <v>487</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>46</v>
@@ -9458,7 +9844,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9466,7 +9852,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>54</v>
@@ -9478,19 +9864,21 @@
         <v>46</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>46</v>
       </c>
@@ -9514,13 +9902,13 @@
         <v>46</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>450</v>
+        <v>46</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>451</v>
+        <v>46</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>46</v>
@@ -9538,10 +9926,10 @@
         <v>46</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>54</v>
@@ -9559,23 +9947,2309 @@
         <v>46</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>452</v>
+        <v>218</v>
       </c>
       <c r="AM66" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="M70" s="2"/>
+      <c r="N70" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X76" s="2"/>
+      <c r="Y76" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP79" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL84" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AN66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP66" t="s" s="2">
+      <c r="AM84" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP85" t="s" s="2">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP66">
+  <autoFilter ref="A1:AP85">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9585,7 +12259,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI84">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/template-profile-on-profile.xlsx
+++ b/docs/template-profile-on-profile.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$73</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="482">
   <si>
     <t>Path</t>
   </si>
@@ -134,7 +134,7 @@
     <t>Mapping: CDA (R2)</t>
   </si>
   <si>
-    <t>Mapping: FiveWs Pattern Mapping</t>
+    <t>Mapping: W5 Mapping</t>
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.div.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
   </si>
   <si>
     <t>foo</t>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>ClinicalDocument.recordTarget.patientRole</t>
+  </si>
+  <si>
+    <t>administrative.individual</t>
   </si>
   <si>
     <t>Patient.id</t>
@@ -213,7 +216,7 @@
     <t>Metadata about the resource</t>
   </si>
   <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content may not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
@@ -229,10 +232,11 @@
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
+This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -251,10 +255,10 @@
     <t>The base language in which the resource is written.</t>
   </si>
   <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>extensible</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -280,13 +284,17 @@
     <t>Text summary of the resource, for human interpretation</t>
   </si>
   <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>A human-readable narrative that contains a summary of the resource, and may be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded in formation is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dom-1
+</t>
   </si>
   <si>
     <t>Act.text?</t>
@@ -309,7 +317,7 @@
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
   </si>
   <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -348,20 +356,6 @@
 </t>
   </si>
   <si>
-    <t>US Core Race Extension</t>
-  </si>
-  <si>
-    <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The race codes used to represent these concepts are based upon the [CDC Race and Ethnicity Code Set Version 1.0](http://www.cdc.gov/phin/resources/vocabulary/index.html) which includes over 900 concepts for representing race and ethnicity of which 921 reference race.  The race concepts are grouped by and pre-mapped to the 5 OMB race categories: - American Indian or Alaska Native - Asian - Black or African American - Native Hawaiian or Other Pacific Islander - White.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {children().count() &gt; id.count()}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>ethnicity</t>
   </si>
   <si>
@@ -369,12 +363,6 @@
 </t>
   </si>
   <si>
-    <t>US Core ethnicity Extension</t>
-  </si>
-  <si>
-    <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The ethnicity codes used to represent these concepts are based upon the [CDC ethnicity and Ethnicity Code Set Version 1.0](http://www.cdc.gov/phin/resources/vocabulary/index.html) which includes over 900 concepts for representing race and ethnicity of which 43 reference ethnicity.  The ethnicity concepts are grouped by and pre-mapped to the 2 OMB ethnicity categories: - Hispanic or Latino - Not Hispanic or Latino.</t>
-  </si>
-  <si>
     <t>birthsex</t>
   </si>
   <si>
@@ -382,15 +370,6 @@
 </t>
   </si>
   <si>
-    <t>A code classifying the person's sex assigned at birth  as specified by the [Office of the National Coordinator for Health IT (ONC)](https://www.healthit.gov/newsroom/about-onc).</t>
-  </si>
-  <si>
-    <t>The codes required are intended to present birth sex (i.e., the sex recorded on the patient’s birth certificate) and not gender identity or reassigned sex.</t>
-  </si>
-  <si>
-    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
-  </si>
-  <si>
     <t>Patient.modifierExtension</t>
   </si>
   <si>
@@ -401,14 +380,10 @@
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -439,9 +414,6 @@
     <t>.id</t>
   </si>
   <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
     <t>PID-3</t>
   </si>
   <si>
@@ -452,10 +424,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -467,10 +439,10 @@
     <t>Patient.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -482,13 +454,13 @@
     <t>Patient.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
+    <t>usual | official | temp | secondary (If known)</t>
   </si>
   <si>
     <t>The purpose of this identifier.</t>
   </si>
   <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
@@ -500,7 +472,7 @@
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -522,15 +494,13 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
+Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
@@ -552,16 +522,13 @@
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>http://Healthedata1/IG-Template/patient-ids</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
+    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -585,7 +552,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/us/core/STU2/extension-rendered-value.html).</t>
   </si>
   <si>
     <t>123456</t>
@@ -657,25 +624,23 @@
     <t>Whether this patient's record is in active use</t>
   </si>
   <si>
-    <t>Whether this patient record is in active use. 
-Many systems use this property to mark as non-current patients, such as those that have not been seen for a period of time based on an organization's business rules.
-It is often used to filter patient lists to exclude inactive patients
-Deceased patients may also be marked as inactive for the same reasons, but may be active for some time after death.</t>
-  </si>
-  <si>
-    <t>If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient.</t>
+    <t>Whether this patient record is in active use.</t>
+  </si>
+  <si>
+    <t>Default is true. If a record is inactive, and linked to an active record, then future patient/record updates should occur on the other patient
+This element is labeled as a modifier because when the patient record is marked as not active it is not expected to be used/referenced without being changed back to active.</t>
   </si>
   <si>
     <t>Need to be able to mark a patient record as not to be used because it was created in error.</t>
   </si>
   <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+    <t>true</t>
   </si>
   <si>
     <t>statusCode</t>
   </si>
   <si>
-    <t>FiveWs.status</t>
+    <t>status</t>
   </si>
   <si>
     <t>Patient.name</t>
@@ -697,10 +662,6 @@
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t xml:space="preserve">us-core-8:Patient.name.given or Patient.name.family or both SHALL be present {family.exists() or given.exists()}
-</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -725,16 +686,16 @@
     <t>Identifies the purpose for this name.</t>
   </si>
   <si>
-    <t>Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary or old name etc.for a current/permanent one. Applications can assume that a name is current unless it explicitly says that it is temporary or old.</t>
   </si>
   <si>
     <t>Allows the appropriate name for a particular context of use to be selected from among a set of names.</t>
   </si>
   <si>
-    <t>The use of a human name.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/name-use|4.0.0</t>
+    <t>The use of a human name</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/name-use</t>
   </si>
   <si>
     <t>HumanName.use</t>
@@ -752,10 +713,10 @@
     <t>Text representation of the full name</t>
   </si>
   <si>
-    <t>Specifies the entire name as it should be displayed e.g. on an application UI. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating a name SHALL ensure that when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+    <t>A full text representation of the name.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and structured parts.</t>
   </si>
   <si>
     <t>A renderable, unencoded form.</t>
@@ -808,7 +769,7 @@
     <t>Given name.</t>
   </si>
   <si>
-    <t>If only initials are recorded, they may be used in place of the full name parts. Initials may be separated into multiple given names but often aren't due to paractical limitations.  This element is not called "first name" since given names do not always come first.</t>
+    <t>If only initials are recorded, they may be used in place of the full name.  Not called "first name" since given names do not always come first.</t>
   </si>
   <si>
     <t>HumanName.given</t>
@@ -890,15 +851,12 @@
     <t>A contact detail (e.g. a telephone number or an email address) by which the individual may be contacted.</t>
   </si>
   <si>
-    <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address might not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>
+    <t>A Patient may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification. The address may not go directly to the individual, but may reach another party that is able to proxy for the patient (i.e. home phone, or pet owner's phone).</t>
   </si>
   <si>
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -908,119 +866,6 @@
     <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
-    <t>Patient.telecom.id</t>
-  </si>
-  <si>
-    <t>Patient.telecom.extension</t>
-  </si>
-  <si>
-    <t>Patient.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>Patient.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>Patient.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>Patient.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Patient.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
     <t>Patient.gender</t>
   </si>
   <si>
@@ -1030,13 +875,16 @@
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
   </si>
   <si>
-    <t>The gender might not match the biological sex as determined by genetics or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than male and female, though the vast majority of systems and contexts only support male and female.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific sex or gender aspect of interest (anatomical, chromosomal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosomal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overridable error, not a "hard" error.  See the Patient Gender and Sex section for additional information about communicating patient gender and sex.</t>
-  </si>
-  <si>
-    <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
+    <t>The gender may not match the biological sex as determined by genetics, or the individual's preferred identification. Note that for both humans and particularly animals, there are other legitimate possibilities than M and F, though the vast majority of systems and contexts only support M and F.  Systems providing decision support or enforcing business rules should ideally do this on the basis of Observations dealing with the specific gender aspect of interest (anatomical, chromosonal, social, etc.)  However, because these observations are infrequently recorded, defaulting to the administrative gender is common practice.  Where such defaulting occurs, rule enforcement should allow for the variation between administrative and biological, chromosonal and other gender aspects.  For example, an alert about a hysterectomy on a male should be handled as a warning or overrideable error, not a "hard" error.</t>
+  </si>
+  <si>
+    <t>Needed for identification of the individual, in combination with (at least) name and birth date. Gender of individual drives many clinical processes.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+  </si>
+  <si>
+    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
   </si>
   <si>
     <t>.patient.administrativeGenderCode</t>
@@ -1058,7 +906,7 @@
     <t>The date of birth for the individual.</t>
   </si>
   <si>
-    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternity/infant care systems).</t>
+    <t>At least an estimated year should be provided as a guess if the real DOB is unknown  There is a standard extension "patient-birthTime" available that should be used where Time is required (such as in maternaty/infant care systems).</t>
   </si>
   <si>
     <t>Age of the individual drives many clinical processes.</t>
@@ -1089,7 +937,8 @@
     <t>Indicates if the individual is deceased or not.</t>
   </si>
   <si>
-    <t>If there's no value in the instance, it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.</t>
+    <t>If there's no value in the instance it means there is no statement on whether or not the individual is deceased. Most systems will interpret the absence of a value as a sign of the person being alive.
+This element is labeled as a modifier because once a patient is marked as deceased, the actions that are appropriate to perform on the patient may be significantly different.</t>
   </si>
   <si>
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
@@ -1108,10 +957,10 @@
 </t>
   </si>
   <si>
-    <t>An address for the individual</t>
-  </si>
-  <si>
-    <t>An address for the individual.</t>
+    <t>Addresses for the individual</t>
+  </si>
+  <si>
+    <t>Addresses for the individual.</t>
   </si>
   <si>
     <t>Patient may have multiple addresses with different uses or applicable periods.</t>
@@ -1127,262 +976,6 @@
   </si>
   <si>
     <t>PID-11</t>
-  </si>
-  <si>
-    <t>Patient.address.id</t>
-  </si>
-  <si>
-    <t>Patient.address.extension</t>
-  </si>
-  <si>
-    <t>Patient.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.0</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>Patient.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.0</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>XAD.18</t>
-  </si>
-  <si>
-    <t>Patient.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
-  </si>
-  <si>
-    <t>Patient.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>Patient.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>Patient.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>Patient.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>Two Letter USPS alphabetic codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>Patient.address.postalCode</t>
-  </si>
-  <si>
-    <t>Zip
-Zip Code</t>
-  </si>
-  <si>
-    <t>US Zip Codes</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>Patient.address.country</t>
-  </si>
-  <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>Patient.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-22T21:00:00-07:00"/&gt;
-  &lt;end value="2010-06-30T21:00:00-07:00"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1422,10 +1015,12 @@
     <t>Whether patient is part of a multiple birth</t>
   </si>
   <si>
-    <t>Indicates whether the patient is part of a multiple (boolean) or indicates the actual birth order (integer).</t>
-  </si>
-  <si>
-    <t>Where the valueInteger is provided, the number is the birth number in the sequence. E.g. The middle birth in triplets would be valueInteger=2 and the third born would have valueInteger=3 If a boolean value was provided for this triplets example, then all 3 patient records would have valueBoolean=true (the ordering is not indicated).</t>
+    <t>Indicates whether the patient is part of a multiple (bool) or indicates the actual birth order (integer).</t>
+  </si>
+  <si>
+    <t>Where the valueInteger is provided, the number is the birth number in the sequence.
+E.g. The middle birth in tripplets would be valueInteger=2 and the third born would have valueInteger=3
+If a bool value was provided for this tripplets examle, then all 3 patient records would have valueBool=true (the ordering is not indicated).</t>
   </si>
   <si>
     <t>For disambiguation of multiple-birth children, especially relevant where the care provider doesn't meet the patient, such as labs.</t>
@@ -1450,12 +1045,6 @@
     <t>Image of the patient.</t>
   </si>
   <si>
-    <t>Guidelines:
-* Use id photos, not clinical photos.
-* Limit dimensions to thumbnail.
-* Keep byte count low to ease resource updates.</t>
-  </si>
-  <si>
     <t>Many EHR systems have the capability to capture an image of the patient. Fits with newer social media usage too.</t>
   </si>
   <si>
@@ -1484,7 +1073,7 @@
     <t>Need to track people you can contact about the patient.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 pat-1:SHALL at least contain a contact's details or a reference to an organization {name.exists() or telecom.exists() or address.exists() or organization.exists()}</t>
   </si>
   <si>
@@ -1504,11 +1093,7 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1529,7 +1114,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/v2-0131</t>
   </si>
   <si>
     <t>code</t>
@@ -1593,9 +1178,6 @@
   </si>
   <si>
     <t>The gender of a person used for administrative purposes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender|4.0.0</t>
   </si>
   <si>
     <t>NK1-15</t>
@@ -1635,23 +1217,125 @@
     <t>effectiveTime</t>
   </si>
   <si>
+    <t>Patient.animal</t>
+  </si>
+  <si>
+    <t>This patient is known to be an animal (non-human)</t>
+  </si>
+  <si>
+    <t>This patient is known to be an animal.</t>
+  </si>
+  <si>
+    <t>The animal element is labeled "Is Modifier" since patients may be non-human. Systems SHALL either handle patient details appropriately (e.g. inform users patient is not human) or reject declared animal records.   The absense of the animal element does not imply that the patient is a human. If a system requires such a positive assertion that the patient is human, an extension will be required.  (Do not use a species of homo-sapiens in animal species, as this would incorrectly infer that the patient is an animal).</t>
+  </si>
+  <si>
+    <t>Many clinical systems are extended to care for animal patients as well as human.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>player[classCode=ANM]</t>
+  </si>
+  <si>
+    <t>Patient.animal.id</t>
+  </si>
+  <si>
+    <t>Patient.animal.extension</t>
+  </si>
+  <si>
+    <t>Patient.animal.modifierExtension</t>
+  </si>
+  <si>
+    <t>Patient.animal.species</t>
+  </si>
+  <si>
+    <t>E.g. Dog, Cow</t>
+  </si>
+  <si>
+    <t>Identifies the high level taxonomic categorization of the kind of animal.</t>
+  </si>
+  <si>
+    <t>If the patient is non-human, at least a species SHALL be specified. Species SHALL be a widely recognised taxonomic classification.  It may or may not be Linnaean taxonomy and may or may not be at the level of species. If the level is finer than species--such as a breed code--the code system used SHALL allow inference of the species.  (The common example is that the word "Hereford" does not allow inference of the species Bos taurus, because there is a Hereford pig breed, but the SNOMED CT code for "Hereford Cattle Breed" does.).</t>
+  </si>
+  <si>
+    <t>Need to know what kind of animal.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The species of an animal.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/animal-species</t>
+  </si>
+  <si>
+    <t>PID-35</t>
+  </si>
+  <si>
+    <t>Patient.animal.breed</t>
+  </si>
+  <si>
+    <t>E.g. Poodle, Angus</t>
+  </si>
+  <si>
+    <t>Identifies the detailed categorization of the kind of animal.</t>
+  </si>
+  <si>
+    <t>Breed MAY be used to provide further taxonomic or non-taxonomic classification.  It may involve local or proprietary designation--such as commercial strain--and/or additional information such as production type.</t>
+  </si>
+  <si>
+    <t>May need to know the specific kind within the species.</t>
+  </si>
+  <si>
+    <t>The breed of an animal.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/animal-breeds</t>
+  </si>
+  <si>
+    <t>playedRole[classCode=GEN]/scoper[classCode=ANM, determinerCode=KIND]/code</t>
+  </si>
+  <si>
+    <t>PID-37</t>
+  </si>
+  <si>
+    <t>Patient.animal.genderStatus</t>
+  </si>
+  <si>
+    <t>E.g. Neutered, Intact</t>
+  </si>
+  <si>
+    <t>Indicates the current state of the animal's reproductive organs.</t>
+  </si>
+  <si>
+    <t>Gender status can affect housing and animal behavior.</t>
+  </si>
+  <si>
+    <t>The state of the animal's reproductive organs.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/animal-genderstatus</t>
+  </si>
+  <si>
+    <t>genderStatusCode</t>
+  </si>
+  <si>
     <t>Patient.communication</t>
   </si>
   <si>
-    <t>A language which may be used to communicate with the patient about his or her health</t>
-  </si>
-  <si>
-    <t>A language which may be used to communicate with the patient about his or her health.</t>
-  </si>
-  <si>
-    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes, then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.</t>
-  </si>
-  <si>
-    <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency are important things to keep track of both for patient and other persons of interest.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
+    <t>A list of Languages which may be used to communicate with the patient about his or her health</t>
+  </si>
+  <si>
+    <t>Languages which may be used to communicate with the patient about his or her health.</t>
+  </si>
+  <si>
+    <t>If no language is specified, this *implies* that the default local language is spoken.  If you need to convey proficiency for multiple modes then you need multiple Patient.Communication associations.   For animals, language is not a relevant field, and should be absent from the instance. If the Patient does not speak the default local language, then the Interpreter Required Standard can be used to explicitly declare that an interpreter is required.</t>
+  </si>
+  <si>
+    <t>If a patient does not speak the local language, interpreters may be required, so languages spoken and proficiency is an important things to keep track of both for patient and other persons of interest.</t>
   </si>
   <si>
     <t>LanguageCommunication</t>
@@ -1727,7 +1411,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|Practitioner)
 </t>
   </si>
   <si>
@@ -1737,9 +1421,8 @@
     <t>Patient's nominated care provider.</t>
   </si>
   <si>
-    <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disability setting, or even organization that will provide people to perform the care provider roles.  It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.
-Multiple GPs may be recorded against the patient for various reasons, such as a student that has his home GP listed along with the GP at university during the school semesters, or a "fly-in/fly-out" worker that has the onsite GP also included with his home GP to remain aware of medical issues.
-Jurisdictions may decide that they can profile this down to 1 if desired, or 1 per type.</t>
+    <t>This may be the primary care provider (in a GP context), or it may be a patient nominated care manager in a community/disablity setting, or even organization that will provide people to perform the care provider roles.
+It is not to be used to record Care Teams, these should be in a CareTeam resource that may be linked to the CarePlan or EpisodeOfCare resources.</t>
   </si>
   <si>
     <t>subjectOf.CareEvent.performer.AssignedEntity</t>
@@ -1775,12 +1458,12 @@
     <t>Link to another patient resource that concerns the same actual patient.</t>
   </si>
   <si>
-    <t>There is no assumption that linked patient records have mutual links.</t>
-  </si>
-  <si>
-    <t>There are multiple use cases:   
-* Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and 
-* Distribution of patient information across multiple servers.</t>
+    <t>There is no assumption that linked patient records have mutual links. 
+This element is labelled as a modifier because it may not be the main Patient resource, and the referenced patient should be used instead of this Patient record. This is when the link.type value is 'replaced-by'.</t>
+  </si>
+  <si>
+    <t>There are multiple usecases: 
+* Duplicate patient records due to the clerical errors associated with the difficulties of identifying humans consistently, and * Distribution of patient information across multiple servers.</t>
   </si>
   <si>
     <t>outboundLink</t>
@@ -1817,13 +1500,13 @@
     <t>Patient.link.type</t>
   </si>
   <si>
-    <t>replaced-by | replaces | refer | seealso</t>
+    <t>replaced-by | replaces | refer | seealso - type of link</t>
   </si>
   <si>
     <t>The type of link between this patient resource and another patient resource.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/link-type|4.0.0</t>
+    <t>http://hl7.org/fhir/ValueSet/link-type</t>
   </si>
   <si>
     <t>typeCode</t>
@@ -1975,7 +1658,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP85"/>
+  <dimension ref="A1:AP73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2008,7 +1691,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.1171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -2023,8 +1706,8 @@
     <col min="37" max="37" width="30.77734375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="151.51171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="39.390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="103.671875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="22.9296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="54.29296875" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="36.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2265,7 +1948,7 @@
         <v>52</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>46</v>
@@ -2276,7 +1959,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2287,7 +1970,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>46</v>
@@ -2296,19 +1979,19 @@
         <v>46</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2358,13 +2041,13 @@
         <v>46</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>46</v>
@@ -2396,7 +2079,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2407,7 +2090,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>46</v>
@@ -2416,16 +2099,16 @@
         <v>46</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2476,13 +2159,13 @@
         <v>46</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>46</v>
@@ -2514,7 +2197,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2525,28 +2208,28 @@
         <v>44</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2596,13 +2279,13 @@
         <v>46</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>46</v>
@@ -2634,7 +2317,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2645,7 +2328,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>46</v>
@@ -2657,16 +2340,16 @@
         <v>46</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2692,13 +2375,13 @@
         <v>46</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>46</v>
@@ -2716,13 +2399,13 @@
         <v>46</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>46</v>
@@ -2754,18 +2437,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>46</v>
@@ -2777,16 +2460,16 @@
         <v>46</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2836,16 +2519,16 @@
         <v>46</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>46</v>
@@ -2857,7 +2540,7 @@
         <v>46</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>46</v>
@@ -2874,11 +2557,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2897,16 +2580,16 @@
         <v>46</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2956,7 +2639,7 @@
         <v>46</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>44</v>
@@ -2977,7 +2660,7 @@
         <v>46</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>46</v>
@@ -2994,7 +2677,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -3017,13 +2700,13 @@
         <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3062,17 +2745,17 @@
         <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>44</v>
@@ -3110,10 +2793,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>46</v>
@@ -3123,10 +2806,10 @@
         <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>46</v>
@@ -3135,13 +2818,13 @@
         <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3192,7 +2875,7 @@
         <v>46</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -3201,16 +2884,16 @@
         <v>45</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>46</v>
@@ -3230,10 +2913,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>46</v>
@@ -3243,10 +2926,10 @@
         <v>44</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>46</v>
@@ -3255,13 +2938,13 @@
         <v>46</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3312,7 +2995,7 @@
         <v>46</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -3321,16 +3004,16 @@
         <v>45</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>46</v>
@@ -3350,10 +3033,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>46</v>
@@ -3363,10 +3046,10 @@
         <v>44</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>46</v>
@@ -3375,17 +3058,15 @@
         <v>46</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>46</v>
@@ -3434,7 +3115,7 @@
         <v>46</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
@@ -3443,19 +3124,19 @@
         <v>45</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>46</v>
@@ -3472,11 +3153,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3489,26 +3170,24 @@
         <v>46</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>46</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>46</v>
       </c>
@@ -3556,7 +3235,7 @@
         <v>46</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>44</v>
@@ -3577,7 +3256,7 @@
         <v>46</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>46</v>
@@ -3594,7 +3273,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3602,32 +3281,32 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>46</v>
@@ -3676,7 +3355,7 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3691,22 +3370,22 @@
         <v>46</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
@@ -3714,7 +3393,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3725,7 +3404,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>46</v>
@@ -3737,13 +3416,13 @@
         <v>46</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3794,13 +3473,13 @@
         <v>46</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>46</v>
@@ -3815,7 +3494,7 @@
         <v>46</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>46</v>
@@ -3832,11 +3511,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3855,16 +3534,16 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3902,19 +3581,19 @@
         <v>46</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3935,7 +3614,7 @@
         <v>46</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>46</v>
@@ -3952,7 +3631,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3963,31 +3642,31 @@
         <v>44</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>46</v>
@@ -4012,13 +3691,13 @@
         <v>46</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>46</v>
@@ -4036,13 +3715,13 @@
         <v>46</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>46</v>
@@ -4057,7 +3736,7 @@
         <v>46</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>46</v>
@@ -4066,7 +3745,7 @@
         <v>46</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>46</v>
@@ -4074,7 +3753,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4085,7 +3764,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>46</v>
@@ -4094,22 +3773,22 @@
         <v>46</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -4134,13 +3813,13 @@
         <v>46</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>46</v>
@@ -4158,13 +3837,13 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>46</v>
@@ -4179,7 +3858,7 @@
         <v>46</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>46</v>
@@ -4188,7 +3867,7 @@
         <v>46</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>46</v>
@@ -4196,7 +3875,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4204,47 +3883,45 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>46</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>46</v>
@@ -4280,13 +3957,13 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>46</v>
@@ -4295,13 +3972,13 @@
         <v>46</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>46</v>
@@ -4310,7 +3987,7 @@
         <v>46</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>46</v>
@@ -4318,7 +3995,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4326,31 +4003,31 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4364,7 +4041,7 @@
         <v>46</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>46</v>
@@ -4400,13 +4077,13 @@
         <v>46</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>46</v>
@@ -4418,10 +4095,10 @@
         <v>46</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>46</v>
@@ -4430,7 +4107,7 @@
         <v>46</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>46</v>
@@ -4438,7 +4115,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4449,7 +4126,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>46</v>
@@ -4458,16 +4135,16 @@
         <v>46</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4518,13 +4195,13 @@
         <v>46</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>46</v>
@@ -4539,7 +4216,7 @@
         <v>46</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>46</v>
@@ -4548,7 +4225,7 @@
         <v>46</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>46</v>
@@ -4556,7 +4233,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4567,7 +4244,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>46</v>
@@ -4576,19 +4253,19 @@
         <v>46</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4638,13 +4315,13 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>46</v>
@@ -4659,7 +4336,7 @@
         <v>46</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>46</v>
@@ -4668,7 +4345,7 @@
         <v>46</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>46</v>
@@ -4676,7 +4353,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4687,89 +4364,87 @@
         <v>44</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H23" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG23" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="I23" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Q23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="AH23" t="s" s="2">
         <v>46</v>
       </c>
@@ -4783,13 +4458,13 @@
         <v>46</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>46</v>
@@ -4800,7 +4475,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4808,34 +4483,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>46</v>
@@ -4884,7 +4559,7 @@
         <v>46</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>44</v>
@@ -4896,25 +4571,25 @@
         <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>46</v>
@@ -4922,7 +4597,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4933,7 +4608,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>46</v>
@@ -4945,13 +4620,13 @@
         <v>46</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5002,13 +4677,13 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>46</v>
@@ -5023,7 +4698,7 @@
         <v>46</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>46</v>
@@ -5040,11 +4715,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5063,16 +4738,16 @@
         <v>46</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5110,19 +4785,19 @@
         <v>46</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
@@ -5143,7 +4818,7 @@
         <v>46</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>46</v>
@@ -5160,7 +4835,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5171,31 +4846,31 @@
         <v>44</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -5220,13 +4895,13 @@
         <v>46</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>46</v>
@@ -5244,13 +4919,13 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>46</v>
@@ -5265,7 +4940,7 @@
         <v>46</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>46</v>
@@ -5274,7 +4949,7 @@
         <v>46</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -5282,7 +4957,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5293,7 +4968,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>46</v>
@@ -5302,22 +4977,22 @@
         <v>46</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -5366,13 +5041,13 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>46</v>
@@ -5387,7 +5062,7 @@
         <v>46</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>46</v>
@@ -5396,7 +5071,7 @@
         <v>46</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>46</v>
@@ -5404,39 +5079,39 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5486,13 +5161,13 @@
         <v>46</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>46</v>
@@ -5504,10 +5179,10 @@
         <v>46</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>46</v>
@@ -5516,7 +5191,7 @@
         <v>46</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>46</v>
@@ -5524,39 +5199,39 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5606,7 +5281,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5624,10 +5299,10 @@
         <v>46</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>46</v>
@@ -5636,7 +5311,7 @@
         <v>46</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5644,7 +5319,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5664,16 +5339,16 @@
         <v>46</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5724,7 +5399,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5745,7 +5420,7 @@
         <v>46</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>46</v>
@@ -5754,7 +5429,7 @@
         <v>46</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>46</v>
@@ -5762,7 +5437,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5782,16 +5457,16 @@
         <v>46</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5842,7 +5517,7 @@
         <v>46</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5863,7 +5538,7 @@
         <v>46</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>46</v>
@@ -5872,7 +5547,7 @@
         <v>46</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>46</v>
@@ -5880,7 +5555,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5891,7 +5566,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>46</v>
@@ -5900,20 +5575,20 @@
         <v>46</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>46</v>
@@ -5962,13 +5637,13 @@
         <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>46</v>
@@ -5983,7 +5658,7 @@
         <v>46</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>46</v>
@@ -5992,15 +5667,15 @@
         <v>46</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6014,28 +5689,28 @@
         <v>45</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>46</v>
@@ -6084,7 +5759,7 @@
         <v>46</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -6102,27 +5777,27 @@
         <v>46</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6130,31 +5805,35 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>46</v>
       </c>
@@ -6178,13 +5857,11 @@
         <v>46</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>46</v>
+        <v>278</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>46</v>
@@ -6202,13 +5879,13 @@
         <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>46</v>
@@ -6220,61 +5897,63 @@
         <v>46</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>46</v>
+        <v>273</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>141</v>
+        <v>279</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>46</v>
+        <v>281</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>98</v>
+        <v>283</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>143</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>46</v>
       </c>
@@ -6310,25 +5989,25 @@
         <v>46</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>146</v>
+        <v>282</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>46</v>
@@ -6340,27 +6019,27 @@
         <v>46</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>46</v>
+        <v>289</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>46</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6368,31 +6047,35 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>73</v>
+        <v>293</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>46</v>
       </c>
@@ -6416,40 +6099,40 @@
         <v>46</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>291</v>
+        <v>46</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>46</v>
@@ -6458,27 +6141,27 @@
         <v>46</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6486,34 +6169,34 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>46</v>
@@ -6562,13 +6245,13 @@
         <v>46</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>46</v>
@@ -6580,27 +6263,27 @@
         <v>46</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>46</v>
+        <v>307</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6611,31 +6294,29 @@
         <v>44</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>46</v>
@@ -6660,11 +6341,13 @@
         <v>46</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>46</v>
@@ -6682,13 +6365,13 @@
         <v>46</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>46</v>
@@ -6700,19 +6383,19 @@
         <v>46</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>231</v>
+        <v>315</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>46</v>
+        <v>316</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>46</v>
@@ -6720,7 +6403,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6731,7 +6414,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>46</v>
@@ -6740,21 +6423,23 @@
         <v>46</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>46</v>
       </c>
@@ -6808,7 +6493,7 @@
         <v>44</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>46</v>
@@ -6823,16 +6508,16 @@
         <v>46</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>141</v>
+        <v>324</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>141</v>
+        <v>325</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>46</v>
@@ -6840,7 +6525,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6851,7 +6536,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>46</v>
@@ -6860,19 +6545,21 @@
         <v>46</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>188</v>
+        <v>327</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>46</v>
       </c>
@@ -6920,13 +6607,13 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>46</v>
@@ -6941,24 +6628,24 @@
         <v>46</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>96</v>
+        <v>332</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6966,34 +6653,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>73</v>
+        <v>334</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>46</v>
@@ -7018,11 +6705,13 @@
         <v>46</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>328</v>
+        <v>46</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>46</v>
@@ -7040,45 +6729,45 @@
         <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>46</v>
+        <v>339</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>323</v>
+        <v>46</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>118</v>
+        <v>340</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>330</v>
+        <v>46</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7089,32 +6778,28 @@
         <v>44</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>333</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>46</v>
       </c>
@@ -7162,13 +6847,13 @@
         <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>46</v>
@@ -7180,63 +6865,61 @@
         <v>46</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>132</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>340</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>46</v>
       </c>
@@ -7284,13 +6967,13 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>341</v>
+        <v>137</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>46</v>
@@ -7305,28 +6988,28 @@
         <v>46</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>132</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>348</v>
+        <v>46</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>46</v>
+        <v>344</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7336,29 +7019,27 @@
         <v>45</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>351</v>
+        <v>114</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>46</v>
       </c>
@@ -7406,7 +7087,7 @@
         <v>46</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -7424,19 +7105,19 @@
         <v>46</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>98</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>356</v>
+        <v>46</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>357</v>
+        <v>46</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>46</v>
@@ -7444,7 +7125,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7455,7 +7136,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>46</v>
@@ -7467,16 +7148,18 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>348</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>139</v>
+        <v>349</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>46</v>
       </c>
@@ -7500,13 +7183,13 @@
         <v>46</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>46</v>
+        <v>351</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>46</v>
+        <v>352</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>46</v>
@@ -7524,13 +7207,13 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>140</v>
+        <v>347</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>46</v>
@@ -7545,16 +7228,16 @@
         <v>46</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>141</v>
+        <v>353</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>46</v>
@@ -7562,18 +7245,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>46</v>
@@ -7585,18 +7268,18 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>143</v>
+        <v>356</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>46</v>
       </c>
@@ -7632,25 +7315,25 @@
         <v>46</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>146</v>
+        <v>355</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>46</v>
@@ -7665,16 +7348,16 @@
         <v>46</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>46</v>
+        <v>359</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>46</v>
@@ -7693,19 +7376,19 @@
         <v>44</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>73</v>
+        <v>265</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>361</v>
@@ -7717,7 +7400,7 @@
         <v>363</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>364</v>
+        <v>269</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>46</v>
@@ -7730,7 +7413,7 @@
         <v>46</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>365</v>
+        <v>46</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>46</v>
@@ -7742,13 +7425,13 @@
         <v>46</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>366</v>
+        <v>46</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>367</v>
+        <v>46</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>46</v>
@@ -7766,13 +7449,13 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>46</v>
@@ -7787,16 +7470,16 @@
         <v>46</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>46</v>
@@ -7804,7 +7487,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7815,7 +7498,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>46</v>
@@ -7824,21 +7507,21 @@
         <v>46</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>73</v>
+        <v>301</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>46</v>
       </c>
@@ -7850,7 +7533,7 @@
         <v>46</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>374</v>
+        <v>46</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>46</v>
@@ -7862,13 +7545,13 @@
         <v>46</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>375</v>
+        <v>46</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>376</v>
+        <v>46</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>46</v>
@@ -7886,13 +7569,13 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>46</v>
@@ -7907,16 +7590,16 @@
         <v>46</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>46</v>
@@ -7924,7 +7607,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7935,7 +7618,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>46</v>
@@ -7944,22 +7627,20 @@
         <v>46</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>380</v>
+        <v>274</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>237</v>
+        <v>372</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>46</v>
@@ -7972,7 +7653,7 @@
         <v>46</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>383</v>
+        <v>46</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>46</v>
@@ -7984,13 +7665,13 @@
         <v>46</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>46</v>
+        <v>373</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>46</v>
+        <v>278</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>46</v>
@@ -8008,13 +7689,13 @@
         <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>46</v>
@@ -8029,24 +7710,24 @@
         <v>46</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8057,28 +7738,30 @@
         <v>44</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>137</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>46</v>
       </c>
@@ -8090,7 +7773,7 @@
         <v>46</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>389</v>
+        <v>46</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>46</v>
@@ -8126,16 +7809,16 @@
         <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>379</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>46</v>
@@ -8144,56 +7827,56 @@
         <v>46</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>394</v>
+        <v>46</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8208,7 +7891,7 @@
         <v>46</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>397</v>
+        <v>46</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>46</v>
@@ -8244,13 +7927,13 @@
         <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>46</v>
@@ -8262,19 +7945,19 @@
         <v>46</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>46</v>
@@ -8282,41 +7965,43 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>402</v>
+        <v>46</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>137</v>
+        <v>334</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>46</v>
       </c>
@@ -8328,7 +8013,7 @@
         <v>46</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>406</v>
+        <v>46</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>46</v>
@@ -8364,74 +8049,74 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>46</v>
+        <v>391</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>46</v>
+        <v>386</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>409</v>
+        <v>46</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>411</v>
+        <v>46</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>130</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8458,13 +8143,13 @@
         <v>46</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>414</v>
+        <v>46</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>415</v>
+        <v>46</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>46</v>
@@ -8482,13 +8167,13 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>416</v>
+        <v>131</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>46</v>
@@ -8500,10 +8185,10 @@
         <v>46</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>417</v>
+        <v>132</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>46</v>
@@ -8512,46 +8197,48 @@
         <v>46</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>418</v>
+        <v>46</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>420</v>
+        <v>113</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>421</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>46</v>
@@ -8564,7 +8251,7 @@
         <v>46</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>423</v>
+        <v>46</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>46</v>
@@ -8600,13 +8287,13 @@
         <v>46</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>46</v>
@@ -8618,10 +8305,10 @@
         <v>46</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>425</v>
+        <v>132</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>46</v>
@@ -8630,7 +8317,7 @@
         <v>46</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>426</v>
+        <v>46</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>46</v>
@@ -8638,39 +8325,39 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>46</v>
+        <v>344</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>428</v>
+        <v>114</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
+        <v>345</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>430</v>
+        <v>116</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8720,13 +8407,13 @@
         <v>46</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>431</v>
+        <v>346</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>46</v>
@@ -8741,7 +8428,7 @@
         <v>46</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>98</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>46</v>
@@ -8750,15 +8437,15 @@
         <v>46</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>396</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8766,32 +8453,34 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>437</v>
+        <v>400</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>46</v>
@@ -8804,7 +8493,7 @@
         <v>46</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>438</v>
+        <v>46</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>46</v>
@@ -8816,13 +8505,13 @@
         <v>46</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>46</v>
+        <v>401</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>46</v>
+        <v>402</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>46</v>
+        <v>403</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>46</v>
@@ -8840,13 +8529,13 @@
         <v>46</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>439</v>
+        <v>396</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>46</v>
@@ -8858,19 +8547,19 @@
         <v>46</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>274</v>
+        <v>353</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>440</v>
+        <v>404</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>46</v>
@@ -8878,7 +8567,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8889,7 +8578,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>46</v>
@@ -8898,20 +8587,22 @@
         <v>46</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>442</v>
+        <v>406</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>46</v>
@@ -8936,13 +8627,13 @@
         <v>46</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>163</v>
+        <v>401</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>446</v>
+        <v>411</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>46</v>
@@ -8960,13 +8651,13 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>441</v>
+        <v>405</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>46</v>
@@ -8981,16 +8672,16 @@
         <v>46</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>448</v>
+        <v>132</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>46</v>
@@ -8998,7 +8689,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9009,7 +8700,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>46</v>
@@ -9018,22 +8709,20 @@
         <v>46</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>451</v>
+        <v>149</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>452</v>
+        <v>415</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>455</v>
+        <v>417</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>46</v>
@@ -9058,13 +8747,13 @@
         <v>46</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>46</v>
+        <v>401</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>46</v>
+        <v>418</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>46</v>
+        <v>419</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>46</v>
@@ -9082,13 +8771,13 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>46</v>
@@ -9103,24 +8792,24 @@
         <v>46</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>457</v>
+        <v>98</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9134,7 +8823,7 @@
         <v>45</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>46</v>
@@ -9143,19 +8832,19 @@
         <v>46</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>459</v>
+        <v>334</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>460</v>
+        <v>422</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>461</v>
+        <v>423</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>46</v>
@@ -9204,7 +8893,7 @@
         <v>46</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
@@ -9216,25 +8905,25 @@
         <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>46</v>
+        <v>391</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>46</v>
+        <v>421</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>141</v>
+        <v>427</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>465</v>
+        <v>46</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>46</v>
@@ -9242,7 +8931,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>428</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9253,7 +8942,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>46</v>
@@ -9265,20 +8954,16 @@
         <v>46</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>467</v>
+        <v>128</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>468</v>
+        <v>129</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>471</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>46</v>
       </c>
@@ -9326,19 +9011,19 @@
         <v>46</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>466</v>
+        <v>131</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>472</v>
+        <v>46</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>46</v>
@@ -9347,10 +9032,10 @@
         <v>46</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>473</v>
+        <v>132</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>46</v>
@@ -9364,18 +9049,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>474</v>
+        <v>429</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>46</v>
@@ -9387,15 +9072,17 @@
         <v>46</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>46</v>
@@ -9444,13 +9131,13 @@
         <v>46</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>46</v>
@@ -9465,7 +9152,7 @@
         <v>46</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>46</v>
@@ -9482,11 +9169,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>120</v>
+        <v>344</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9499,22 +9186,22 @@
         <v>46</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>144</v>
+        <v>345</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9564,7 +9251,7 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>146</v>
+        <v>346</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
@@ -9585,7 +9272,7 @@
         <v>46</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>141</v>
+        <v>98</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>46</v>
@@ -9600,44 +9287,44 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>477</v>
+        <v>46</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>478</v>
+        <v>432</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>123</v>
+        <v>434</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>124</v>
+        <v>435</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>46</v>
@@ -9662,13 +9349,11 @@
         <v>46</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
-        <v>46</v>
+        <v>436</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>46</v>
@@ -9686,13 +9371,13 @@
         <v>46</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>480</v>
+        <v>431</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>46</v>
@@ -9704,19 +9389,19 @@
         <v>46</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>46</v>
+        <v>431</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>96</v>
+        <v>437</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>46</v>
+        <v>438</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>46</v>
+        <v>439</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>46</v>
@@ -9724,7 +9409,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9735,7 +9420,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>46</v>
@@ -9747,17 +9432,19 @@
         <v>46</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="N65" t="s" s="2">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>46</v>
@@ -9782,13 +9469,13 @@
         <v>46</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>485</v>
+        <v>46</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>486</v>
+        <v>46</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>46</v>
@@ -9806,13 +9493,13 @@
         <v>46</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>46</v>
@@ -9827,16 +9514,16 @@
         <v>46</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>487</v>
+        <v>445</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>141</v>
+        <v>446</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>46</v>
@@ -9844,18 +9531,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>46</v>
+        <v>449</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>46</v>
@@ -9867,18 +9554,18 @@
         <v>46</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>212</v>
+        <v>450</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>492</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>46</v>
       </c>
@@ -9926,13 +9613,13 @@
         <v>46</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>46</v>
@@ -9947,16 +9634,16 @@
         <v>46</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>218</v>
+        <v>454</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>46</v>
@@ -9964,7 +9651,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9975,7 +9662,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>46</v>
@@ -9984,22 +9671,22 @@
         <v>46</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>496</v>
+        <v>458</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>281</v>
+        <v>460</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>46</v>
@@ -10048,13 +9735,13 @@
         <v>46</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>46</v>
@@ -10069,16 +9756,16 @@
         <v>46</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>283</v>
+        <v>380</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>141</v>
+        <v>461</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>498</v>
+        <v>46</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>46</v>
@@ -10086,7 +9773,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10097,29 +9784,31 @@
         <v>44</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>500</v>
+        <v>463</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M68" s="2"/>
+        <v>464</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>465</v>
+      </c>
       <c r="N68" t="s" s="2">
-        <v>502</v>
+        <v>466</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>46</v>
@@ -10168,19 +9857,19 @@
         <v>46</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>499</v>
+        <v>462</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>46</v>
+        <v>391</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>46</v>
@@ -10189,16 +9878,16 @@
         <v>46</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>355</v>
+        <v>467</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>503</v>
+        <v>46</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>46</v>
@@ -10206,7 +9895,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10217,7 +9906,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>46</v>
@@ -10229,18 +9918,16 @@
         <v>46</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>324</v>
+        <v>129</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>505</v>
+        <v>130</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>506</v>
-      </c>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>46</v>
       </c>
@@ -10264,13 +9951,13 @@
         <v>46</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>507</v>
+        <v>46</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>508</v>
+        <v>46</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>46</v>
@@ -10288,13 +9975,13 @@
         <v>46</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>504</v>
+        <v>131</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>46</v>
@@ -10309,16 +9996,16 @@
         <v>46</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>509</v>
+        <v>46</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>46</v>
@@ -10326,18 +10013,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>46</v>
@@ -10349,18 +10036,18 @@
         <v>46</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>511</v>
+        <v>134</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>46</v>
       </c>
@@ -10408,16 +10095,16 @@
         <v>46</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>510</v>
+        <v>137</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>514</v>
+        <v>46</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>46</v>
@@ -10429,16 +10116,16 @@
         <v>46</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>515</v>
+        <v>132</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>516</v>
+        <v>46</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>46</v>
@@ -10446,38 +10133,40 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>517</v>
+        <v>470</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>46</v>
+        <v>344</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>518</v>
+        <v>114</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M71" s="2"/>
+        <v>345</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>46</v>
@@ -10526,13 +10215,13 @@
         <v>46</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>517</v>
+        <v>346</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>46</v>
@@ -10547,10 +10236,10 @@
         <v>46</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>520</v>
+        <v>98</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>46</v>
@@ -10562,9 +10251,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10572,35 +10261,33 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>522</v>
+        <v>473</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>523</v>
+        <v>474</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>46</v>
       </c>
@@ -10648,37 +10335,37 @@
         <v>46</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>521</v>
+        <v>471</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>526</v>
+        <v>46</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>521</v>
+        <v>46</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>527</v>
+        <v>124</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>528</v>
+        <v>132</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>46</v>
+        <v>476</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>46</v>
@@ -10686,7 +10373,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>529</v>
+        <v>477</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10694,10 +10381,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>46</v>
@@ -10706,16 +10393,16 @@
         <v>46</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>138</v>
+        <v>478</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>139</v>
+        <v>479</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10742,13 +10429,13 @@
         <v>46</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>46</v>
+        <v>479</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>46</v>
+        <v>480</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>46</v>
@@ -10766,13 +10453,13 @@
         <v>46</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>140</v>
+        <v>477</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>46</v>
@@ -10787,10 +10474,10 @@
         <v>46</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>141</v>
+        <v>481</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>46</v>
@@ -10799,1457 +10486,11 @@
         <v>46</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X76" s="2"/>
-      <c r="Y76" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP85" t="s" s="2">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP85">
+  <autoFilter ref="A1:AP73">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12259,7 +10500,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI72">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/template-profile-on-profile.xlsx
+++ b/docs/template-profile-on-profile.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2522" uniqueCount="453">
   <si>
     <t>Path</t>
   </si>
@@ -348,20 +348,6 @@
 </t>
   </si>
   <si>
-    <t>US Core Race Extension</t>
-  </si>
-  <si>
-    <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The race codes used to represent these concepts are based upon the [CDC Race and Ethnicity Code Set Version 1.0](http://www.cdc.gov/phin/resources/vocabulary/index.html) which includes over 900 concepts for representing race and ethnicity of which 921 reference race.  The race concepts are grouped by and pre-mapped to the 5 OMB race categories: - American Indian or Alaska Native - Asian - Black or African American - Native Hawaiian or Other Pacific Islander - White.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {children().count() &gt; id.count()}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>ethnicity</t>
   </si>
   <si>
@@ -369,12 +355,6 @@
 </t>
   </si>
   <si>
-    <t>US Core ethnicity Extension</t>
-  </si>
-  <si>
-    <t>Concepts classifying the person into a named category of humans sharing common history, traits, geographical origin or nationality.  The ethnicity codes used to represent these concepts are based upon the [CDC ethnicity and Ethnicity Code Set Version 1.0](http://www.cdc.gov/phin/resources/vocabulary/index.html) which includes over 900 concepts for representing race and ethnicity of which 43 reference ethnicity.  The ethnicity concepts are grouped by and pre-mapped to the 2 OMB ethnicity categories: - Hispanic or Latino - Not Hispanic or Latino.</t>
-  </si>
-  <si>
     <t>birthsex</t>
   </si>
   <si>
@@ -382,15 +362,6 @@
 </t>
   </si>
   <si>
-    <t>A code classifying the person's sex assigned at birth  as specified by the [Office of the National Coordinator for Health IT (ONC)](https://www.healthit.gov/newsroom/about-onc).</t>
-  </si>
-  <si>
-    <t>The codes required are intended to present birth sex (i.e., the sex recorded on the patient’s birth certificate) and not gender identity or reassigned sex.</t>
-  </si>
-  <si>
-    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
-  </si>
-  <si>
     <t>Patient.modifierExtension</t>
   </si>
   <si>
@@ -408,7 +379,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://build.fhir.org/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -585,7 +556,7 @@
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
   </si>
   <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://build.fhir.org/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -697,10 +668,6 @@
     <t>Need to be able to track the patient by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t xml:space="preserve">us-core-8:Patient.name.given or Patient.name.family or both SHALL be present {family.exists() or given.exists()}
-</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -896,9 +863,6 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>telecom</t>
   </si>
   <si>
@@ -908,119 +872,6 @@
     <t>PID-13, PID-14, PID-40</t>
   </si>
   <si>
-    <t>Patient.telecom.id</t>
-  </si>
-  <si>
-    <t>Patient.telecom.extension</t>
-  </si>
-  <si>
-    <t>Patient.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>XTN.3</t>
-  </si>
-  <si>
-    <t>Patient.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>XTN.1 (or XTN.12)</t>
-  </si>
-  <si>
-    <t>Patient.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>XTN.2 - but often indicated by field</t>
-  </si>
-  <si>
-    <t>Patient.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>Patient.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
     <t>Patient.gender</t>
   </si>
   <si>
@@ -1037,6 +888,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+  </si>
+  <si>
+    <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/administrativeGender</t>
   </si>
   <si>
     <t>.patient.administrativeGenderCode</t>
@@ -1127,262 +981,6 @@
   </si>
   <si>
     <t>PID-11</t>
-  </si>
-  <si>
-    <t>Patient.address.id</t>
-  </si>
-  <si>
-    <t>Patient.address.extension</t>
-  </si>
-  <si>
-    <t>Patient.address.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Allows an appropriate address to be chosen from a list of many.</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.0</t>
-  </si>
-  <si>
-    <t>Address.use</t>
-  </si>
-  <si>
-    <t>XAD.7</t>
-  </si>
-  <si>
-    <t>Patient.address.type</t>
-  </si>
-  <si>
-    <t>postal | physical | both</t>
-  </si>
-  <si>
-    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
-  </si>
-  <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>The type of an address (physical / postal).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.0</t>
-  </si>
-  <si>
-    <t>Address.type</t>
-  </si>
-  <si>
-    <t>XAD.18</t>
-  </si>
-  <si>
-    <t>Patient.address.text</t>
-  </si>
-  <si>
-    <t>Text representation of the address</t>
-  </si>
-  <si>
-    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
-  </si>
-  <si>
-    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street, Erewhon 9132</t>
-  </si>
-  <si>
-    <t>Address.text</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 + XAD.3 + XAD.4 + XAD.5 + XAD.6</t>
-  </si>
-  <si>
-    <t>Patient.address.line</t>
-  </si>
-  <si>
-    <t>Street name, number, direction &amp; P.O. Box etc.</t>
-  </si>
-  <si>
-    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
-  </si>
-  <si>
-    <t>137 Nowhere Street</t>
-  </si>
-  <si>
-    <t>Address.line</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = AL]</t>
-  </si>
-  <si>
-    <t>XAD.1 + XAD.2 (note: XAD.1 and XAD.2 have different meanings for a company address than for a person address)</t>
-  </si>
-  <si>
-    <t>Patient.address.city</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municpality
-</t>
-  </si>
-  <si>
-    <t>Name of city, town etc.</t>
-  </si>
-  <si>
-    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
-  </si>
-  <si>
-    <t>Erewhon</t>
-  </si>
-  <si>
-    <t>Address.city</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>XAD.3</t>
-  </si>
-  <si>
-    <t>Patient.address.district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">County
-</t>
-  </si>
-  <si>
-    <t>District name (aka county)</t>
-  </si>
-  <si>
-    <t>The name of the administrative area (county).</t>
-  </si>
-  <si>
-    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Address.district</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT | CPA]</t>
-  </si>
-  <si>
-    <t>XAD.9</t>
-  </si>
-  <si>
-    <t>Patient.address.state</t>
-  </si>
-  <si>
-    <t>Province
-Territory</t>
-  </si>
-  <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
-  </si>
-  <si>
-    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
-  </si>
-  <si>
-    <t>Two Letter USPS alphabetic codes.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-usps-state</t>
-  </si>
-  <si>
-    <t>Address.state</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = STA]</t>
-  </si>
-  <si>
-    <t>XAD.4</t>
-  </si>
-  <si>
-    <t>Patient.address.postalCode</t>
-  </si>
-  <si>
-    <t>Zip
-Zip Code</t>
-  </si>
-  <si>
-    <t>US Zip Codes</t>
-  </si>
-  <si>
-    <t>A postal code designating a region defined by the postal service.</t>
-  </si>
-  <si>
-    <t>9132</t>
-  </si>
-  <si>
-    <t>Address.postalCode</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>XAD.5</t>
-  </si>
-  <si>
-    <t>Patient.address.country</t>
-  </si>
-  <si>
-    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
-  </si>
-  <si>
-    <t>Country - a nation as commonly understood or generally accepted.</t>
-  </si>
-  <si>
-    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
-  </si>
-  <si>
-    <t>Address.country</t>
-  </si>
-  <si>
-    <t>AD.part[parttype = CNT]</t>
-  </si>
-  <si>
-    <t>XAD.6</t>
-  </si>
-  <si>
-    <t>Patient.address.period</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when address was/is in use.</t>
-  </si>
-  <si>
-    <t>Allows addresses to be placed in historical context.</t>
-  </si>
-  <si>
-    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-22T21:00:00-07:00"/&gt;
-  &lt;end value="2010-06-30T21:00:00-07:00"/&gt;
-&lt;/valuePeriod&gt;</t>
-  </si>
-  <si>
-    <t>Address.period</t>
-  </si>
-  <si>
-    <t>XAD.12 / XAD.13 + XAD.14</t>
   </si>
   <si>
     <t>Patient.maritalStatus</t>
@@ -1975,7 +1573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP85"/>
+  <dimension ref="A1:AP66"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2008,7 +1606,7 @@
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="52.4609375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
@@ -2024,7 +1622,7 @@
     <col min="38" max="38" width="151.51171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="39.390625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="103.671875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="54.29296875" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="36.43359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3138,10 +2736,10 @@
         <v>105</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3201,10 +2799,10 @@
         <v>45</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>46</v>
@@ -3233,7 +2831,7 @@
         <v>97</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>46</v>
@@ -3255,13 +2853,13 @@
         <v>46</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3321,10 +2919,10 @@
         <v>45</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>46</v>
@@ -3353,7 +2951,7 @@
         <v>97</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>46</v>
@@ -3375,17 +2973,15 @@
         <v>46</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>99</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>46</v>
@@ -3443,10 +3039,10 @@
         <v>45</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>46</v>
@@ -3455,7 +3051,7 @@
         <v>97</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>46</v>
@@ -3472,11 +3068,11 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -3498,16 +3094,16 @@
         <v>98</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>46</v>
@@ -3556,7 +3152,7 @@
         <v>46</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>44</v>
@@ -3594,7 +3190,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3617,17 +3213,17 @@
         <v>55</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>46</v>
@@ -3676,7 +3272,7 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3691,22 +3287,22 @@
         <v>46</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
@@ -3714,7 +3310,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3737,13 +3333,13 @@
         <v>46</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3794,7 +3390,7 @@
         <v>46</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>44</v>
@@ -3815,7 +3411,7 @@
         <v>46</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>46</v>
@@ -3832,11 +3428,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3858,13 +3454,13 @@
         <v>98</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3905,7 +3501,7 @@
         <v>101</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>46</v>
@@ -3914,7 +3510,7 @@
         <v>102</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3935,7 +3531,7 @@
         <v>46</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>46</v>
@@ -3952,7 +3548,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3978,16 +3574,16 @@
         <v>73</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>46</v>
@@ -4012,13 +3608,13 @@
         <v>46</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>46</v>
@@ -4036,7 +3632,7 @@
         <v>46</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -4057,7 +3653,7 @@
         <v>46</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>46</v>
@@ -4074,7 +3670,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4097,19 +3693,19 @@
         <v>55</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -4134,13 +3730,13 @@
         <v>46</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>46</v>
@@ -4158,7 +3754,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -4179,7 +3775,7 @@
         <v>46</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>46</v>
@@ -4188,7 +3784,7 @@
         <v>46</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>46</v>
@@ -4196,7 +3792,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4222,29 +3818,29 @@
         <v>67</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>46</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>46</v>
@@ -4280,7 +3876,7 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -4295,14 +3891,14 @@
         <v>46</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>177</v>
-      </c>
       <c r="AM19" t="s" s="2">
         <v>46</v>
       </c>
@@ -4310,7 +3906,7 @@
         <v>46</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>46</v>
@@ -4318,7 +3914,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4341,16 +3937,16 @@
         <v>55</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4364,7 +3960,7 @@
         <v>46</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>46</v>
@@ -4400,7 +3996,7 @@
         <v>46</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4418,10 +4014,10 @@
         <v>46</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>46</v>
@@ -4430,7 +4026,7 @@
         <v>46</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>46</v>
@@ -4438,7 +4034,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4461,13 +4057,13 @@
         <v>55</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4518,7 +4114,7 @@
         <v>46</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
@@ -4539,7 +4135,7 @@
         <v>46</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>46</v>
@@ -4548,7 +4144,7 @@
         <v>46</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>46</v>
@@ -4556,7 +4152,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4579,16 +4175,16 @@
         <v>55</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4638,7 +4234,7 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>44</v>
@@ -4659,7 +4255,7 @@
         <v>46</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>46</v>
@@ -4668,7 +4264,7 @@
         <v>46</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>46</v>
@@ -4676,7 +4272,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4699,25 +4295,25 @@
         <v>55</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="Q23" t="s" s="2">
         <v>46</v>
@@ -4762,7 +4358,7 @@
         <v>46</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
@@ -4783,13 +4379,13 @@
         <v>46</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>46</v>
@@ -4800,7 +4396,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4823,19 +4419,19 @@
         <v>55</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>46</v>
@@ -4884,7 +4480,7 @@
         <v>46</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>44</v>
@@ -4896,25 +4492,25 @@
         <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>217</v>
+        <v>46</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>46</v>
@@ -4922,7 +4518,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4945,13 +4541,13 @@
         <v>46</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -5002,7 +4598,7 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
@@ -5023,7 +4619,7 @@
         <v>46</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>46</v>
@@ -5040,11 +4636,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -5066,13 +4662,13 @@
         <v>98</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5113,7 +4709,7 @@
         <v>101</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>46</v>
@@ -5122,7 +4718,7 @@
         <v>102</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>44</v>
@@ -5143,7 +4739,7 @@
         <v>46</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>46</v>
@@ -5160,7 +4756,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5186,16 +4782,16 @@
         <v>73</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -5220,13 +4816,13 @@
         <v>46</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>46</v>
@@ -5244,7 +4840,7 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -5265,7 +4861,7 @@
         <v>46</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>46</v>
@@ -5274,7 +4870,7 @@
         <v>46</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -5282,7 +4878,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5305,19 +4901,19 @@
         <v>55</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -5366,7 +4962,7 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -5387,7 +4983,7 @@
         <v>46</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>46</v>
@@ -5396,7 +4992,7 @@
         <v>46</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>46</v>
@@ -5404,15 +5000,15 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>54</v>
@@ -5427,16 +5023,16 @@
         <v>55</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5486,7 +5082,7 @@
         <v>46</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -5504,10 +5100,10 @@
         <v>46</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>46</v>
@@ -5516,7 +5112,7 @@
         <v>46</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>46</v>
@@ -5524,15 +5120,15 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>45</v>
@@ -5547,16 +5143,16 @@
         <v>55</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5606,7 +5202,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5624,10 +5220,10 @@
         <v>46</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>46</v>
@@ -5636,7 +5232,7 @@
         <v>46</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5644,7 +5240,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5667,13 +5263,13 @@
         <v>55</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5724,7 +5320,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5745,7 +5341,7 @@
         <v>46</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>46</v>
@@ -5754,7 +5350,7 @@
         <v>46</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>46</v>
@@ -5762,7 +5358,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5785,13 +5381,13 @@
         <v>55</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5842,7 +5438,7 @@
         <v>46</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5863,7 +5459,7 @@
         <v>46</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>46</v>
@@ -5872,7 +5468,7 @@
         <v>46</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>46</v>
@@ -5880,7 +5476,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5903,17 +5499,17 @@
         <v>55</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>46</v>
@@ -5962,7 +5558,7 @@
         <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5983,7 +5579,7 @@
         <v>46</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>46</v>
@@ -5992,15 +5588,15 @@
         <v>46</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6014,7 +5610,7 @@
         <v>45</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>46</v>
@@ -6023,19 +5619,19 @@
         <v>55</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>46</v>
@@ -6084,7 +5680,7 @@
         <v>46</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>44</v>
@@ -6102,27 +5698,27 @@
         <v>46</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6130,31 +5726,35 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>54</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>138</v>
+        <v>276</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>46</v>
       </c>
@@ -6178,13 +5778,11 @@
         <v>46</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>46</v>
@@ -6202,7 +5800,7 @@
         <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>140</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -6220,61 +5818,63 @@
         <v>46</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>141</v>
+        <v>281</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>46</v>
+        <v>283</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>98</v>
+        <v>285</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>144</v>
+        <v>287</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>46</v>
       </c>
@@ -6310,25 +5910,25 @@
         <v>46</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>146</v>
+        <v>284</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>46</v>
@@ -6340,27 +5940,27 @@
         <v>46</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>46</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>141</v>
+        <v>290</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>46</v>
+        <v>292</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>46</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6368,31 +5968,35 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>54</v>
       </c>
       <c r="G37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>46</v>
       </c>
@@ -6416,13 +6020,13 @@
         <v>46</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>291</v>
+        <v>46</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>292</v>
+        <v>46</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>46</v>
@@ -6440,7 +6044,7 @@
         <v>46</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6449,7 +6053,7 @@
         <v>54</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>294</v>
+        <v>46</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>46</v>
@@ -6458,27 +6062,27 @@
         <v>46</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6486,13 +6090,13 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>46</v>
@@ -6501,19 +6105,19 @@
         <v>55</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>137</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>46</v>
@@ -6568,7 +6172,7 @@
         <v>44</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>46</v>
@@ -6580,27 +6184,27 @@
         <v>46</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>46</v>
+        <v>309</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6614,28 +6218,26 @@
         <v>54</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>308</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>46</v>
@@ -6660,11 +6262,13 @@
         <v>46</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X39" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="Y39" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>46</v>
@@ -6700,19 +6304,19 @@
         <v>46</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>231</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>46</v>
@@ -6720,7 +6324,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6740,21 +6344,23 @@
         <v>46</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>46</v>
       </c>
@@ -6802,7 +6408,7 @@
         <v>46</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6823,16 +6429,16 @@
         <v>46</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>141</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>141</v>
+        <v>327</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>46</v>
@@ -6840,7 +6446,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6851,7 +6457,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>46</v>
@@ -6860,19 +6466,23 @@
         <v>46</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>188</v>
+        <v>329</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>46</v>
       </c>
@@ -6920,13 +6530,13 @@
         <v>46</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>46</v>
@@ -6941,24 +6551,24 @@
         <v>46</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>274</v>
+        <v>334</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>96</v>
+        <v>335</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6966,34 +6576,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>73</v>
+        <v>337</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>46</v>
@@ -7018,11 +6628,13 @@
         <v>46</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>328</v>
+        <v>46</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>46</v>
@@ -7040,45 +6652,45 @@
         <v>46</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>46</v>
+        <v>342</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>323</v>
+        <v>46</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>118</v>
+        <v>343</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>330</v>
+        <v>46</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7092,29 +6704,25 @@
         <v>54</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>333</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>46</v>
       </c>
@@ -7162,7 +6770,7 @@
         <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>331</v>
+        <v>131</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -7180,63 +6788,61 @@
         <v>46</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>337</v>
+        <v>132</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>340</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>46</v>
+        <v>111</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>342</v>
+        <v>98</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>343</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>344</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>46</v>
       </c>
@@ -7284,13 +6890,13 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>341</v>
+        <v>137</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>46</v>
@@ -7305,28 +6911,28 @@
         <v>46</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>347</v>
+        <v>132</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>348</v>
+        <v>46</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>46</v>
+        <v>347</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -7336,28 +6942,28 @@
         <v>45</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s" s="2">
         <v>55</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>46</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>350</v>
+        <v>98</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>353</v>
+        <v>114</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>354</v>
+        <v>115</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>46</v>
@@ -7406,7 +7012,7 @@
         <v>46</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -7424,19 +7030,19 @@
         <v>46</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>355</v>
+        <v>96</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>356</v>
+        <v>46</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>357</v>
+        <v>46</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>46</v>
@@ -7444,7 +7050,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7455,7 +7061,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>46</v>
@@ -7467,16 +7073,18 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>139</v>
+        <v>353</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>354</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>46</v>
       </c>
@@ -7500,13 +7108,13 @@
         <v>46</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>46</v>
+        <v>355</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>46</v>
+        <v>356</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>46</v>
@@ -7524,13 +7132,13 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>140</v>
+        <v>351</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>46</v>
@@ -7545,16 +7153,16 @@
         <v>46</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>141</v>
+        <v>357</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>46</v>
+        <v>358</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>46</v>
@@ -7566,14 +7174,14 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>46</v>
@@ -7585,18 +7193,18 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>143</v>
+        <v>360</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>46</v>
       </c>
@@ -7632,25 +7240,25 @@
         <v>46</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>146</v>
+        <v>359</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>46</v>
@@ -7665,16 +7273,16 @@
         <v>46</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>46</v>
+        <v>363</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>46</v>
@@ -7682,7 +7290,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7693,31 +7301,31 @@
         <v>44</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>73</v>
+        <v>267</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>364</v>
+        <v>271</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>46</v>
@@ -7730,7 +7338,7 @@
         <v>46</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>365</v>
+        <v>46</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>46</v>
@@ -7742,13 +7350,13 @@
         <v>46</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>366</v>
+        <v>46</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>367</v>
+        <v>46</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>46</v>
@@ -7766,37 +7374,37 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>46</v>
@@ -7804,7 +7412,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7824,21 +7432,21 @@
         <v>46</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>73</v>
+        <v>303</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" s="2"/>
+      <c r="N49" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>46</v>
       </c>
@@ -7850,7 +7458,7 @@
         <v>46</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>374</v>
+        <v>46</v>
       </c>
       <c r="T49" t="s" s="2">
         <v>46</v>
@@ -7862,13 +7470,13 @@
         <v>46</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>375</v>
+        <v>46</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>376</v>
+        <v>46</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>46</v>
@@ -7886,7 +7494,7 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
@@ -7907,16 +7515,16 @@
         <v>46</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>46</v>
@@ -7924,7 +7532,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7944,22 +7552,20 @@
         <v>46</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>380</v>
+        <v>276</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>237</v>
+        <v>376</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>46</v>
@@ -7972,7 +7578,7 @@
         <v>46</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>383</v>
+        <v>46</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>46</v>
@@ -7984,13 +7590,13 @@
         <v>46</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>46</v>
+        <v>377</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>46</v>
+        <v>378</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>46</v>
@@ -8008,7 +7614,7 @@
         <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
@@ -8029,24 +7635,24 @@
         <v>46</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8057,28 +7663,30 @@
         <v>44</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>46</v>
       </c>
@@ -8090,7 +7698,7 @@
         <v>46</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>389</v>
+        <v>46</v>
       </c>
       <c r="T51" t="s" s="2">
         <v>46</v>
@@ -8126,16 +7734,16 @@
         <v>46</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>46</v>
+        <v>384</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>46</v>
@@ -8144,31 +7752,31 @@
         <v>46</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>394</v>
+        <v>46</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8178,22 +7786,22 @@
         <v>54</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -8208,7 +7816,7 @@
         <v>46</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>397</v>
+        <v>46</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>46</v>
@@ -8244,7 +7852,7 @@
         <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
@@ -8262,61 +7870,63 @@
         <v>46</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>402</v>
+        <v>46</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>46</v>
       </c>
@@ -8328,7 +7938,7 @@
         <v>46</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>406</v>
+        <v>46</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>46</v>
@@ -8364,49 +7974,49 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>46</v>
+        <v>391</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>46</v>
+        <v>398</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>409</v>
+        <v>46</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>411</v>
+        <v>46</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -8416,22 +8026,22 @@
         <v>54</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>130</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8458,13 +8068,13 @@
         <v>46</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>414</v>
+        <v>46</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>415</v>
+        <v>46</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>46</v>
@@ -8482,7 +8092,7 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>416</v>
+        <v>131</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8500,10 +8110,10 @@
         <v>46</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>417</v>
+        <v>132</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>46</v>
@@ -8512,46 +8122,48 @@
         <v>46</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>418</v>
+        <v>46</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>420</v>
+        <v>111</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>421</v>
+        <v>134</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>46</v>
@@ -8564,7 +8176,7 @@
         <v>46</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>423</v>
+        <v>46</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>46</v>
@@ -8600,13 +8212,13 @@
         <v>46</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>424</v>
+        <v>137</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>46</v>
@@ -8618,10 +8230,10 @@
         <v>46</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>425</v>
+        <v>132</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>46</v>
@@ -8630,7 +8242,7 @@
         <v>46</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>426</v>
+        <v>46</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>46</v>
@@ -8638,41 +8250,43 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>46</v>
+        <v>347</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>428</v>
+        <v>348</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>429</v>
+        <v>349</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>46</v>
       </c>
@@ -8720,13 +8334,13 @@
         <v>46</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>431</v>
+        <v>350</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>46</v>
@@ -8741,7 +8355,7 @@
         <v>46</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>432</v>
+        <v>96</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>46</v>
@@ -8750,7 +8364,7 @@
         <v>46</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>46</v>
@@ -8758,7 +8372,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8766,7 +8380,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>54</v>
@@ -8778,20 +8392,22 @@
         <v>46</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>435</v>
+        <v>403</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="N57" t="s" s="2">
-        <v>437</v>
+        <v>406</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>46</v>
@@ -8804,7 +8420,7 @@
         <v>46</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>438</v>
+        <v>46</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>46</v>
@@ -8816,13 +8432,11 @@
         <v>46</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>46</v>
+        <v>407</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>46</v>
@@ -8840,10 +8454,10 @@
         <v>46</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>439</v>
+        <v>402</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>54</v>
@@ -8858,19 +8472,19 @@
         <v>46</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>282</v>
+        <v>402</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>274</v>
+        <v>408</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>46</v>
+        <v>409</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>46</v>
@@ -8878,7 +8492,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8901,17 +8515,19 @@
         <v>46</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="N58" t="s" s="2">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>46</v>
@@ -8936,13 +8552,13 @@
         <v>46</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>445</v>
+        <v>46</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>446</v>
+        <v>46</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>46</v>
@@ -8960,7 +8576,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -8981,16 +8597,16 @@
         <v>46</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>447</v>
+        <v>416</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>448</v>
+        <v>417</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>449</v>
+        <v>418</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>46</v>
@@ -8998,18 +8614,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>46</v>
+        <v>420</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>46</v>
@@ -9021,20 +8637,18 @@
         <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>46</v>
       </c>
@@ -9082,13 +8696,13 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>46</v>
@@ -9103,16 +8717,16 @@
         <v>46</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>456</v>
+        <v>425</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>46</v>
@@ -9120,7 +8734,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9131,7 +8745,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>46</v>
@@ -9140,22 +8754,22 @@
         <v>46</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>459</v>
+        <v>186</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>46</v>
@@ -9204,13 +8818,13 @@
         <v>46</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>458</v>
+        <v>427</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>46</v>
@@ -9225,16 +8839,16 @@
         <v>46</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>464</v>
+        <v>385</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>141</v>
+        <v>432</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>465</v>
+        <v>46</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>46</v>
@@ -9242,7 +8856,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9259,25 +8873,25 @@
         <v>46</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>467</v>
+        <v>337</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>46</v>
@@ -9326,7 +8940,7 @@
         <v>46</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>466</v>
+        <v>433</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
@@ -9338,7 +8952,7 @@
         <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>472</v>
+        <v>396</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>46</v>
@@ -9347,10 +8961,10 @@
         <v>46</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>473</v>
+        <v>438</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>46</v>
@@ -9364,7 +8978,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9387,13 +9001,13 @@
         <v>46</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9444,7 +9058,7 @@
         <v>46</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
@@ -9465,7 +9079,7 @@
         <v>46</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>46</v>
@@ -9482,11 +9096,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>475</v>
+        <v>440</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9508,13 +9122,13 @@
         <v>98</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9564,7 +9178,7 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
@@ -9585,7 +9199,7 @@
         <v>46</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>46</v>
@@ -9602,11 +9216,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>477</v>
+        <v>347</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9628,16 +9242,16 @@
         <v>98</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>478</v>
+        <v>348</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>479</v>
+        <v>349</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>46</v>
@@ -9686,7 +9300,7 @@
         <v>46</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>44</v>
@@ -9724,7 +9338,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9732,10 +9346,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>46</v>
@@ -9744,21 +9358,21 @@
         <v>46</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>158</v>
+        <v>443</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>482</v>
+        <v>444</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>46</v>
       </c>
@@ -9782,13 +9396,13 @@
         <v>46</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>485</v>
+        <v>46</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>486</v>
+        <v>46</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>46</v>
@@ -9806,13 +9420,13 @@
         <v>46</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>481</v>
+        <v>442</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>46</v>
@@ -9827,16 +9441,16 @@
         <v>46</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>487</v>
+        <v>123</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>46</v>
@@ -9844,7 +9458,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9852,7 +9466,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>54</v>
@@ -9864,21 +9478,19 @@
         <v>46</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>212</v>
+        <v>73</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="M66" s="2"/>
-      <c r="N66" t="s" s="2">
-        <v>492</v>
-      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>46</v>
       </c>
@@ -9902,13 +9514,13 @@
         <v>46</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>46</v>
+        <v>450</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>46</v>
+        <v>451</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>46</v>
@@ -9926,10 +9538,10 @@
         <v>46</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>54</v>
@@ -9947,2309 +9559,23 @@
         <v>46</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>218</v>
+        <v>452</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>493</v>
+        <v>46</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="AP67" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AP68" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="M69" s="2"/>
-      <c r="N69" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AP69" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="M70" s="2"/>
-      <c r="N70" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P70" s="2"/>
-      <c r="Q70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AP70" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP71" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP72" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP74" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X76" s="2"/>
-      <c r="Y76" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>539</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="AP76" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>548</v>
-      </c>
-      <c r="AP77" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="AP78" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>559</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>557</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP79" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP80" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP81" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP82" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP83" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AP84" t="s" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP85" t="s" s="2">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP85">
+  <autoFilter ref="A1:AP66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12259,7 +9585,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI84">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
